--- a/public/Admin.xlsx
+++ b/public/Admin.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
   <si>
     <t>Número da Mudança</t>
   </si>
@@ -167,6 +167,15 @@
     <t>xdqzxdq</t>
   </si>
   <si>
+    <t>Dados de implementação</t>
+  </si>
+  <si>
+    <t>Implementada</t>
+  </si>
+  <si>
+    <t>xqxdzxdqzxzqxzq</t>
+  </si>
+  <si>
     <t>xdzqxd</t>
   </si>
   <si>
@@ -194,6 +203,9 @@
     <t>11-09-2023</t>
   </si>
   <si>
+    <t>qxdzqd</t>
+  </si>
+  <si>
     <t>xdzqxq</t>
   </si>
   <si>
@@ -203,6 +215,9 @@
     <t>12-09-2023</t>
   </si>
   <si>
+    <t>xqz</t>
+  </si>
+  <si>
     <t>qzdxqz</t>
   </si>
   <si>
@@ -215,6 +230,9 @@
     <t>tets</t>
   </si>
   <si>
+    <t>erstt</t>
+  </si>
+  <si>
     <t>xqzxdzq</t>
   </si>
   <si>
@@ -239,6 +257,9 @@
     <t>fsefedzq</t>
   </si>
   <si>
+    <t>xzqxq</t>
+  </si>
+  <si>
     <t>Let's test now</t>
   </si>
   <si>
@@ -285,18 +306,6 @@
   </si>
   <si>
     <t>como gerente de 021 – TI MATRIZ (INFRAESTRUTURA E REDE)</t>
-  </si>
-  <si>
-    <t>xzqd</t>
-  </si>
-  <si>
-    <t>dqxz</t>
-  </si>
-  <si>
-    <t>20-09-2023</t>
-  </si>
-  <si>
-    <t>Não Dados</t>
   </si>
 </sst>
 </file>
@@ -639,7 +648,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:EZ40"/>
+  <dimension ref="A1:EZ31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="AS1" sqref="AS1"/>
@@ -1067,16 +1076,34 @@
         <v>43</v>
       </c>
       <c r="EH7"/>
+      <c r="EK7" t="s">
+        <v>50</v>
+      </c>
+      <c r="EN7" t="s">
+        <v>33</v>
+      </c>
+      <c r="EQ7" t="s">
+        <v>31</v>
+      </c>
+      <c r="ET7" t="s">
+        <v>34</v>
+      </c>
+      <c r="EW7" t="s">
+        <v>51</v>
+      </c>
+      <c r="EZ7" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="10" spans="1:156">
       <c r="A10">
         <v>249</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I10" t="s">
         <v>25</v>
@@ -1085,13 +1112,13 @@
         <v>25</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="R10" t="s">
         <v>27</v>
       </c>
       <c r="U10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X10" t="s">
         <v>29</v>
@@ -1198,16 +1225,34 @@
         <v>43</v>
       </c>
       <c r="EH10"/>
+      <c r="EK10" t="s">
+        <v>50</v>
+      </c>
+      <c r="EN10" t="s">
+        <v>33</v>
+      </c>
+      <c r="EQ10" t="s">
+        <v>31</v>
+      </c>
+      <c r="ET10" t="s">
+        <v>34</v>
+      </c>
+      <c r="EW10" t="s">
+        <v>51</v>
+      </c>
+      <c r="EZ10" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="13" spans="1:156">
       <c r="A13">
         <v>250</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I13" t="s">
         <v>25</v>
@@ -1216,10 +1261,10 @@
         <v>25</v>
       </c>
       <c r="O13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="R13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U13" t="s">
         <v>47</v>
@@ -1253,7 +1298,7 @@
         <v>31</v>
       </c>
       <c r="BH13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="BK13" t="s">
         <v>35</v>
@@ -1271,7 +1316,7 @@
         <v>31</v>
       </c>
       <c r="BZ13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="CC13" t="s">
         <v>37</v>
@@ -1289,7 +1334,7 @@
         <v>40</v>
       </c>
       <c r="CR13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="CU13" t="s">
         <v>41</v>
@@ -1325,6 +1370,24 @@
         <v>43</v>
       </c>
       <c r="EH13"/>
+      <c r="EK13" t="s">
+        <v>50</v>
+      </c>
+      <c r="EN13" t="s">
+        <v>33</v>
+      </c>
+      <c r="EQ13" t="s">
+        <v>31</v>
+      </c>
+      <c r="ET13" t="s">
+        <v>61</v>
+      </c>
+      <c r="EW13" t="s">
+        <v>51</v>
+      </c>
+      <c r="EZ13" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="16" spans="1:156">
       <c r="A16">
@@ -1334,7 +1397,7 @@
         <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I16" t="s">
         <v>25</v>
@@ -1343,13 +1406,13 @@
         <v>25</v>
       </c>
       <c r="O16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="R16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="X16" t="s">
         <v>29</v>
@@ -1380,7 +1443,7 @@
         <v>31</v>
       </c>
       <c r="BH16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="BK16" t="s">
         <v>35</v>
@@ -1398,7 +1461,7 @@
         <v>31</v>
       </c>
       <c r="BZ16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="CC16" t="s">
         <v>37</v>
@@ -1416,7 +1479,7 @@
         <v>40</v>
       </c>
       <c r="CR16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="CU16" t="s">
         <v>41</v>
@@ -1434,7 +1497,7 @@
         <v>33</v>
       </c>
       <c r="DJ16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="DM16" t="s">
         <v>41</v>
@@ -1456,16 +1519,34 @@
         <v>43</v>
       </c>
       <c r="EH16"/>
+      <c r="EK16" t="s">
+        <v>50</v>
+      </c>
+      <c r="EN16" t="s">
+        <v>33</v>
+      </c>
+      <c r="EQ16" t="s">
+        <v>31</v>
+      </c>
+      <c r="ET16" t="s">
+        <v>65</v>
+      </c>
+      <c r="EW16" t="s">
+        <v>51</v>
+      </c>
+      <c r="EZ16" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="19" spans="1:156">
       <c r="A19">
         <v>252</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I19" t="s">
         <v>25</v>
@@ -1474,13 +1555,13 @@
         <v>25</v>
       </c>
       <c r="O19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R19" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="U19" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="X19" t="s">
         <v>29</v>
@@ -1511,7 +1592,7 @@
         <v>31</v>
       </c>
       <c r="BH19" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="BK19" t="s">
         <v>35</v>
@@ -1529,7 +1610,7 @@
         <v>31</v>
       </c>
       <c r="BZ19" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="CC19" t="s">
         <v>37</v>
@@ -1547,7 +1628,7 @@
         <v>40</v>
       </c>
       <c r="CR19" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="CU19" t="s">
         <v>41</v>
@@ -1565,13 +1646,13 @@
         <v>33</v>
       </c>
       <c r="DJ19" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="DM19" t="s">
         <v>41</v>
       </c>
       <c r="DP19" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="DS19" t="s">
         <v>8</v>
@@ -1587,16 +1668,34 @@
         <v>43</v>
       </c>
       <c r="EH19"/>
+      <c r="EK19" t="s">
+        <v>50</v>
+      </c>
+      <c r="EN19" t="s">
+        <v>33</v>
+      </c>
+      <c r="EQ19" t="s">
+        <v>31</v>
+      </c>
+      <c r="ET19" t="s">
+        <v>65</v>
+      </c>
+      <c r="EW19" t="s">
+        <v>51</v>
+      </c>
+      <c r="EZ19" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="22" spans="1:156">
       <c r="A22">
         <v>253</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I22" t="s">
         <v>25</v>
@@ -1608,10 +1707,10 @@
         <v>27</v>
       </c>
       <c r="R22" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="U22" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="X22" t="s">
         <v>29</v>
@@ -1640,7 +1739,7 @@
         <v>31</v>
       </c>
       <c r="BH22" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="BK22" t="s">
         <v>35</v>
@@ -1658,7 +1757,7 @@
         <v>31</v>
       </c>
       <c r="BZ22" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="CC22" t="s">
         <v>37</v>
@@ -1676,7 +1775,7 @@
         <v>40</v>
       </c>
       <c r="CR22" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="CU22" t="s">
         <v>41</v>
@@ -1721,7 +1820,7 @@
         <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I25" t="s">
         <v>25</v>
@@ -1730,13 +1829,13 @@
         <v>25</v>
       </c>
       <c r="O25" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="R25" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="U25" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="X25" t="s">
         <v>29</v>
@@ -1767,7 +1866,7 @@
         <v>31</v>
       </c>
       <c r="BH25" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="BK25" t="s">
         <v>35</v>
@@ -1785,7 +1884,7 @@
         <v>31</v>
       </c>
       <c r="BZ25" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="CC25" t="s">
         <v>37</v>
@@ -1803,7 +1902,7 @@
         <v>40</v>
       </c>
       <c r="CR25" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="CU25" t="s">
         <v>41</v>
@@ -1821,13 +1920,13 @@
         <v>33</v>
       </c>
       <c r="DJ25" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="DM25" t="s">
         <v>41</v>
       </c>
       <c r="DP25" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="DS25" t="s">
         <v>8</v>
@@ -1843,34 +1942,52 @@
         <v>43</v>
       </c>
       <c r="EH25"/>
+      <c r="EK25" t="s">
+        <v>50</v>
+      </c>
+      <c r="EN25" t="s">
+        <v>33</v>
+      </c>
+      <c r="EQ25" t="s">
+        <v>31</v>
+      </c>
+      <c r="ET25" t="s">
+        <v>75</v>
+      </c>
+      <c r="EW25" t="s">
+        <v>51</v>
+      </c>
+      <c r="EZ25" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="28" spans="1:156">
       <c r="A28">
         <v>255</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F28" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I28" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L28" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="O28" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="R28" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="U28" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="X28" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AA28" t="s">
         <v>30</v>
@@ -1879,7 +1996,7 @@
         <v>25</v>
       </c>
       <c r="AG28" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ28"/>
       <c r="AM28"/>
@@ -1893,10 +2010,10 @@
         <v>30</v>
       </c>
       <c r="BE28" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="BH28" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="BK28" t="s">
         <v>35</v>
@@ -1914,13 +2031,13 @@
         <v>40</v>
       </c>
       <c r="BZ28" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="CC28" t="s">
         <v>37</v>
       </c>
       <c r="CF28" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="CI28" t="s">
         <v>39</v>
@@ -1932,19 +2049,19 @@
         <v>40</v>
       </c>
       <c r="CR28" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="CU28" t="s">
         <v>41</v>
       </c>
       <c r="CX28" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="DA28" t="s">
         <v>11</v>
       </c>
       <c r="DD28" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="DG28" t="s">
         <v>30</v>
@@ -1958,10 +2075,10 @@
         <v>8</v>
       </c>
       <c r="DV28" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="DY28" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="EB28"/>
       <c r="EE28" t="s">
@@ -1978,13 +2095,13 @@
         <v>40</v>
       </c>
       <c r="ET28" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="EW28" t="s">
         <v>41</v>
       </c>
       <c r="EZ28" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:156">
@@ -1992,10 +2109,10 @@
         <v>256</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F31" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="I31" t="s">
         <v>25</v>
@@ -2004,16 +2121,16 @@
         <v>25</v>
       </c>
       <c r="O31" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="R31" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="U31" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="X31" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="AA31" t="s">
         <v>30</v>
@@ -2039,7 +2156,7 @@
         <v>40</v>
       </c>
       <c r="BH31" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="BK31" t="s">
         <v>35</v>
@@ -2057,13 +2174,13 @@
         <v>40</v>
       </c>
       <c r="BZ31" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="CC31" t="s">
         <v>37</v>
       </c>
       <c r="CF31" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="CI31" t="s">
         <v>39</v>
@@ -2075,13 +2192,13 @@
         <v>40</v>
       </c>
       <c r="CR31" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="CU31" t="s">
         <v>41</v>
       </c>
       <c r="CX31" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="DA31" t="s">
         <v>11</v>
@@ -2107,369 +2224,14 @@
         <v>40</v>
       </c>
       <c r="EB31" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="EE31" t="s">
         <v>41</v>
       </c>
       <c r="EH31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:156">
-      <c r="A34">
-        <v>257</v>
-      </c>
-      <c r="C34" t="s">
-        <v>90</v>
-      </c>
-      <c r="F34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I34" t="s">
-        <v>25</v>
-      </c>
-      <c r="L34" t="s">
-        <v>25</v>
-      </c>
-      <c r="O34" t="s">
-        <v>55</v>
-      </c>
-      <c r="R34" t="s">
-        <v>46</v>
-      </c>
-      <c r="U34" t="s">
-        <v>47</v>
-      </c>
-      <c r="X34" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD34"/>
-      <c r="AG34" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ34"/>
-      <c r="AM34"/>
-      <c r="AP34"/>
-      <c r="AS34"/>
-      <c r="AV34"/>
-      <c r="AY34" t="s">
-        <v>32</v>
-      </c>
-      <c r="BB34" t="s">
-        <v>33</v>
-      </c>
-      <c r="BE34" t="s">
-        <v>31</v>
-      </c>
-      <c r="BH34" t="s">
-        <v>92</v>
-      </c>
-      <c r="BK34" t="s">
-        <v>35</v>
-      </c>
-      <c r="BN34" t="s">
-        <v>35</v>
-      </c>
-      <c r="BQ34" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT34" t="s">
-        <v>33</v>
-      </c>
-      <c r="BW34" t="s">
-        <v>31</v>
-      </c>
-      <c r="BZ34" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC34" t="s">
-        <v>43</v>
-      </c>
-      <c r="CF34"/>
-      <c r="CI34" t="s">
-        <v>39</v>
-      </c>
-      <c r="CL34" t="s">
-        <v>33</v>
-      </c>
-      <c r="CO34" t="s">
-        <v>31</v>
-      </c>
-      <c r="CR34"/>
-      <c r="CU34" t="s">
-        <v>43</v>
-      </c>
-      <c r="CX34"/>
-      <c r="DA34" t="s">
-        <v>11</v>
-      </c>
-      <c r="DD34" t="s">
-        <v>93</v>
-      </c>
-      <c r="DG34" t="s">
-        <v>93</v>
-      </c>
-      <c r="DJ34"/>
-      <c r="DM34" t="s">
-        <v>43</v>
-      </c>
-      <c r="DP34"/>
-      <c r="DS34" t="s">
-        <v>8</v>
-      </c>
-      <c r="DV34" t="s">
-        <v>33</v>
-      </c>
-      <c r="DY34" t="s">
-        <v>31</v>
-      </c>
-      <c r="EB34"/>
-      <c r="EE34" t="s">
-        <v>43</v>
-      </c>
-      <c r="EH34"/>
-    </row>
-    <row r="37" spans="1:156">
-      <c r="A37">
-        <v>258</v>
-      </c>
-      <c r="C37" t="s">
-        <v>90</v>
-      </c>
-      <c r="F37" t="s">
-        <v>91</v>
-      </c>
-      <c r="I37" t="s">
-        <v>25</v>
-      </c>
-      <c r="L37" t="s">
-        <v>25</v>
-      </c>
-      <c r="O37" t="s">
-        <v>55</v>
-      </c>
-      <c r="R37" t="s">
-        <v>46</v>
-      </c>
-      <c r="U37" t="s">
-        <v>47</v>
-      </c>
-      <c r="X37" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD37"/>
-      <c r="AG37" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ37"/>
-      <c r="AM37"/>
-      <c r="AP37"/>
-      <c r="AS37"/>
-      <c r="AV37"/>
-      <c r="AY37" t="s">
-        <v>32</v>
-      </c>
-      <c r="BB37" t="s">
-        <v>33</v>
-      </c>
-      <c r="BE37" t="s">
-        <v>31</v>
-      </c>
-      <c r="BH37" t="s">
-        <v>92</v>
-      </c>
-      <c r="BK37" t="s">
-        <v>35</v>
-      </c>
-      <c r="BN37" t="s">
-        <v>35</v>
-      </c>
-      <c r="BQ37" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT37" t="s">
-        <v>33</v>
-      </c>
-      <c r="BW37" t="s">
-        <v>31</v>
-      </c>
-      <c r="BZ37" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC37" t="s">
-        <v>43</v>
-      </c>
-      <c r="CF37"/>
-      <c r="CI37" t="s">
-        <v>39</v>
-      </c>
-      <c r="CL37" t="s">
-        <v>33</v>
-      </c>
-      <c r="CO37" t="s">
-        <v>31</v>
-      </c>
-      <c r="CR37"/>
-      <c r="CU37" t="s">
-        <v>43</v>
-      </c>
-      <c r="CX37"/>
-      <c r="DA37" t="s">
-        <v>11</v>
-      </c>
-      <c r="DD37" t="s">
-        <v>93</v>
-      </c>
-      <c r="DG37" t="s">
-        <v>93</v>
-      </c>
-      <c r="DJ37"/>
-      <c r="DM37" t="s">
-        <v>43</v>
-      </c>
-      <c r="DP37"/>
-      <c r="DS37" t="s">
-        <v>8</v>
-      </c>
-      <c r="DV37" t="s">
-        <v>33</v>
-      </c>
-      <c r="DY37" t="s">
-        <v>31</v>
-      </c>
-      <c r="EB37"/>
-      <c r="EE37" t="s">
-        <v>43</v>
-      </c>
-      <c r="EH37"/>
-    </row>
-    <row r="40" spans="1:156">
-      <c r="A40">
-        <v>259</v>
-      </c>
-      <c r="C40" t="s">
-        <v>90</v>
-      </c>
-      <c r="F40" t="s">
-        <v>91</v>
-      </c>
-      <c r="I40" t="s">
-        <v>25</v>
-      </c>
-      <c r="L40" t="s">
-        <v>25</v>
-      </c>
-      <c r="O40" t="s">
-        <v>55</v>
-      </c>
-      <c r="R40" t="s">
-        <v>46</v>
-      </c>
-      <c r="U40" t="s">
-        <v>47</v>
-      </c>
-      <c r="X40" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD40"/>
-      <c r="AG40" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ40"/>
-      <c r="AM40"/>
-      <c r="AP40"/>
-      <c r="AS40"/>
-      <c r="AV40"/>
-      <c r="AY40" t="s">
-        <v>32</v>
-      </c>
-      <c r="BB40" t="s">
-        <v>33</v>
-      </c>
-      <c r="BE40" t="s">
-        <v>31</v>
-      </c>
-      <c r="BH40" t="s">
-        <v>92</v>
-      </c>
-      <c r="BK40" t="s">
-        <v>35</v>
-      </c>
-      <c r="BN40" t="s">
-        <v>35</v>
-      </c>
-      <c r="BQ40" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT40" t="s">
-        <v>33</v>
-      </c>
-      <c r="BW40" t="s">
-        <v>31</v>
-      </c>
-      <c r="BZ40" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC40" t="s">
-        <v>37</v>
-      </c>
-      <c r="CF40" t="s">
-        <v>38</v>
-      </c>
-      <c r="CI40" t="s">
-        <v>39</v>
-      </c>
-      <c r="CL40" t="s">
-        <v>33</v>
-      </c>
-      <c r="CO40" t="s">
-        <v>31</v>
-      </c>
-      <c r="CR40"/>
-      <c r="CU40" t="s">
-        <v>43</v>
-      </c>
-      <c r="CX40" t="s">
-        <v>38</v>
-      </c>
-      <c r="DA40" t="s">
-        <v>11</v>
-      </c>
-      <c r="DD40" t="s">
-        <v>93</v>
-      </c>
-      <c r="DG40" t="s">
-        <v>93</v>
-      </c>
-      <c r="DJ40"/>
-      <c r="DM40" t="s">
-        <v>43</v>
-      </c>
-      <c r="DP40"/>
-      <c r="DS40" t="s">
-        <v>8</v>
-      </c>
-      <c r="DV40" t="s">
-        <v>33</v>
-      </c>
-      <c r="DY40" t="s">
-        <v>31</v>
-      </c>
-      <c r="EB40"/>
-      <c r="EE40" t="s">
-        <v>43</v>
-      </c>
-      <c r="EH40"/>
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells>
@@ -2614,6 +2376,18 @@
     <mergeCell ref="EB7:ED9"/>
     <mergeCell ref="EE7:EG9"/>
     <mergeCell ref="EH7:EJ9"/>
+    <mergeCell ref="EK1:EM3"/>
+    <mergeCell ref="EK7:EM9"/>
+    <mergeCell ref="EN1:EP3"/>
+    <mergeCell ref="EN7:EP9"/>
+    <mergeCell ref="EQ1:ES3"/>
+    <mergeCell ref="EQ7:ES9"/>
+    <mergeCell ref="ET1:EV3"/>
+    <mergeCell ref="ET7:EV9"/>
+    <mergeCell ref="EW1:EY3"/>
+    <mergeCell ref="EW7:EY9"/>
+    <mergeCell ref="EZ1:FB3"/>
+    <mergeCell ref="EZ7:FB9"/>
     <mergeCell ref="A10:B12"/>
     <mergeCell ref="C10:E12"/>
     <mergeCell ref="F10:H12"/>
@@ -2661,6 +2435,12 @@
     <mergeCell ref="EB10:ED12"/>
     <mergeCell ref="EE10:EG12"/>
     <mergeCell ref="EH10:EJ12"/>
+    <mergeCell ref="EK10:EM12"/>
+    <mergeCell ref="EN10:EP12"/>
+    <mergeCell ref="EQ10:ES12"/>
+    <mergeCell ref="ET10:EV12"/>
+    <mergeCell ref="EW10:EY12"/>
+    <mergeCell ref="EZ10:FB12"/>
     <mergeCell ref="A13:B15"/>
     <mergeCell ref="C13:E15"/>
     <mergeCell ref="F13:H15"/>
@@ -2708,6 +2488,12 @@
     <mergeCell ref="EB13:ED15"/>
     <mergeCell ref="EE13:EG15"/>
     <mergeCell ref="EH13:EJ15"/>
+    <mergeCell ref="EK13:EM15"/>
+    <mergeCell ref="EN13:EP15"/>
+    <mergeCell ref="EQ13:ES15"/>
+    <mergeCell ref="ET13:EV15"/>
+    <mergeCell ref="EW13:EY15"/>
+    <mergeCell ref="EZ13:FB15"/>
     <mergeCell ref="A16:B18"/>
     <mergeCell ref="C16:E18"/>
     <mergeCell ref="F16:H18"/>
@@ -2755,6 +2541,12 @@
     <mergeCell ref="EB16:ED18"/>
     <mergeCell ref="EE16:EG18"/>
     <mergeCell ref="EH16:EJ18"/>
+    <mergeCell ref="EK16:EM18"/>
+    <mergeCell ref="EN16:EP18"/>
+    <mergeCell ref="EQ16:ES18"/>
+    <mergeCell ref="ET16:EV18"/>
+    <mergeCell ref="EW16:EY18"/>
+    <mergeCell ref="EZ16:FB18"/>
     <mergeCell ref="A19:B21"/>
     <mergeCell ref="C19:E21"/>
     <mergeCell ref="F19:H21"/>
@@ -2802,6 +2594,12 @@
     <mergeCell ref="EB19:ED21"/>
     <mergeCell ref="EE19:EG21"/>
     <mergeCell ref="EH19:EJ21"/>
+    <mergeCell ref="EK19:EM21"/>
+    <mergeCell ref="EN19:EP21"/>
+    <mergeCell ref="EQ19:ES21"/>
+    <mergeCell ref="ET19:EV21"/>
+    <mergeCell ref="EW19:EY21"/>
+    <mergeCell ref="EZ19:FB21"/>
     <mergeCell ref="A22:B24"/>
     <mergeCell ref="C22:E24"/>
     <mergeCell ref="F22:H24"/>
@@ -2896,6 +2694,12 @@
     <mergeCell ref="EB25:ED27"/>
     <mergeCell ref="EE25:EG27"/>
     <mergeCell ref="EH25:EJ27"/>
+    <mergeCell ref="EK25:EM27"/>
+    <mergeCell ref="EN25:EP27"/>
+    <mergeCell ref="EQ25:ES27"/>
+    <mergeCell ref="ET25:EV27"/>
+    <mergeCell ref="EW25:EY27"/>
+    <mergeCell ref="EZ25:FB27"/>
     <mergeCell ref="A28:B30"/>
     <mergeCell ref="C28:E30"/>
     <mergeCell ref="F28:H30"/>
@@ -2943,17 +2747,11 @@
     <mergeCell ref="EB28:ED30"/>
     <mergeCell ref="EE28:EG30"/>
     <mergeCell ref="EH28:EJ30"/>
-    <mergeCell ref="EK1:EM3"/>
     <mergeCell ref="EK28:EM30"/>
-    <mergeCell ref="EN1:EP3"/>
     <mergeCell ref="EN28:EP30"/>
-    <mergeCell ref="EQ1:ES3"/>
     <mergeCell ref="EQ28:ES30"/>
-    <mergeCell ref="ET1:EV3"/>
     <mergeCell ref="ET28:EV30"/>
-    <mergeCell ref="EW1:EY3"/>
     <mergeCell ref="EW28:EY30"/>
-    <mergeCell ref="EZ1:FB3"/>
     <mergeCell ref="EZ28:FB30"/>
     <mergeCell ref="A31:B33"/>
     <mergeCell ref="C31:E33"/>
@@ -3002,147 +2800,6 @@
     <mergeCell ref="EB31:ED33"/>
     <mergeCell ref="EE31:EG33"/>
     <mergeCell ref="EH31:EJ33"/>
-    <mergeCell ref="A34:B36"/>
-    <mergeCell ref="C34:E36"/>
-    <mergeCell ref="F34:H36"/>
-    <mergeCell ref="I34:K36"/>
-    <mergeCell ref="L34:N36"/>
-    <mergeCell ref="O34:Q36"/>
-    <mergeCell ref="R34:T36"/>
-    <mergeCell ref="U34:W36"/>
-    <mergeCell ref="X34:Z36"/>
-    <mergeCell ref="AA34:AC36"/>
-    <mergeCell ref="AD34:AF36"/>
-    <mergeCell ref="AG34:AI36"/>
-    <mergeCell ref="AJ34:AL36"/>
-    <mergeCell ref="AM34:AO36"/>
-    <mergeCell ref="AP34:AR36"/>
-    <mergeCell ref="AS34:AU36"/>
-    <mergeCell ref="AV34:AX36"/>
-    <mergeCell ref="AY34:BA36"/>
-    <mergeCell ref="BB34:BD36"/>
-    <mergeCell ref="BE34:BG36"/>
-    <mergeCell ref="BH34:BJ36"/>
-    <mergeCell ref="BK34:BM36"/>
-    <mergeCell ref="BN34:BP36"/>
-    <mergeCell ref="BQ34:BS36"/>
-    <mergeCell ref="BT34:BV36"/>
-    <mergeCell ref="BW34:BY36"/>
-    <mergeCell ref="BZ34:CB36"/>
-    <mergeCell ref="CC34:CE36"/>
-    <mergeCell ref="CF34:CH36"/>
-    <mergeCell ref="CI34:CK36"/>
-    <mergeCell ref="CL34:CN36"/>
-    <mergeCell ref="CO34:CQ36"/>
-    <mergeCell ref="CR34:CT36"/>
-    <mergeCell ref="CU34:CW36"/>
-    <mergeCell ref="CX34:CZ36"/>
-    <mergeCell ref="DA34:DC36"/>
-    <mergeCell ref="DD34:DF36"/>
-    <mergeCell ref="DG34:DI36"/>
-    <mergeCell ref="DJ34:DL36"/>
-    <mergeCell ref="DM34:DO36"/>
-    <mergeCell ref="DP34:DR36"/>
-    <mergeCell ref="DS34:DU36"/>
-    <mergeCell ref="DV34:DX36"/>
-    <mergeCell ref="DY34:EA36"/>
-    <mergeCell ref="EB34:ED36"/>
-    <mergeCell ref="EE34:EG36"/>
-    <mergeCell ref="EH34:EJ36"/>
-    <mergeCell ref="A37:B39"/>
-    <mergeCell ref="C37:E39"/>
-    <mergeCell ref="F37:H39"/>
-    <mergeCell ref="I37:K39"/>
-    <mergeCell ref="L37:N39"/>
-    <mergeCell ref="O37:Q39"/>
-    <mergeCell ref="R37:T39"/>
-    <mergeCell ref="U37:W39"/>
-    <mergeCell ref="X37:Z39"/>
-    <mergeCell ref="AA37:AC39"/>
-    <mergeCell ref="AD37:AF39"/>
-    <mergeCell ref="AG37:AI39"/>
-    <mergeCell ref="AJ37:AL39"/>
-    <mergeCell ref="AM37:AO39"/>
-    <mergeCell ref="AP37:AR39"/>
-    <mergeCell ref="AS37:AU39"/>
-    <mergeCell ref="AV37:AX39"/>
-    <mergeCell ref="AY37:BA39"/>
-    <mergeCell ref="BB37:BD39"/>
-    <mergeCell ref="BE37:BG39"/>
-    <mergeCell ref="BH37:BJ39"/>
-    <mergeCell ref="BK37:BM39"/>
-    <mergeCell ref="BN37:BP39"/>
-    <mergeCell ref="BQ37:BS39"/>
-    <mergeCell ref="BT37:BV39"/>
-    <mergeCell ref="BW37:BY39"/>
-    <mergeCell ref="BZ37:CB39"/>
-    <mergeCell ref="CC37:CE39"/>
-    <mergeCell ref="CF37:CH39"/>
-    <mergeCell ref="CI37:CK39"/>
-    <mergeCell ref="CL37:CN39"/>
-    <mergeCell ref="CO37:CQ39"/>
-    <mergeCell ref="CR37:CT39"/>
-    <mergeCell ref="CU37:CW39"/>
-    <mergeCell ref="CX37:CZ39"/>
-    <mergeCell ref="DA37:DC39"/>
-    <mergeCell ref="DD37:DF39"/>
-    <mergeCell ref="DG37:DI39"/>
-    <mergeCell ref="DJ37:DL39"/>
-    <mergeCell ref="DM37:DO39"/>
-    <mergeCell ref="DP37:DR39"/>
-    <mergeCell ref="DS37:DU39"/>
-    <mergeCell ref="DV37:DX39"/>
-    <mergeCell ref="DY37:EA39"/>
-    <mergeCell ref="EB37:ED39"/>
-    <mergeCell ref="EE37:EG39"/>
-    <mergeCell ref="EH37:EJ39"/>
-    <mergeCell ref="A40:B42"/>
-    <mergeCell ref="C40:E42"/>
-    <mergeCell ref="F40:H42"/>
-    <mergeCell ref="I40:K42"/>
-    <mergeCell ref="L40:N42"/>
-    <mergeCell ref="O40:Q42"/>
-    <mergeCell ref="R40:T42"/>
-    <mergeCell ref="U40:W42"/>
-    <mergeCell ref="X40:Z42"/>
-    <mergeCell ref="AA40:AC42"/>
-    <mergeCell ref="AD40:AF42"/>
-    <mergeCell ref="AG40:AI42"/>
-    <mergeCell ref="AJ40:AL42"/>
-    <mergeCell ref="AM40:AO42"/>
-    <mergeCell ref="AP40:AR42"/>
-    <mergeCell ref="AS40:AU42"/>
-    <mergeCell ref="AV40:AX42"/>
-    <mergeCell ref="AY40:BA42"/>
-    <mergeCell ref="BB40:BD42"/>
-    <mergeCell ref="BE40:BG42"/>
-    <mergeCell ref="BH40:BJ42"/>
-    <mergeCell ref="BK40:BM42"/>
-    <mergeCell ref="BN40:BP42"/>
-    <mergeCell ref="BQ40:BS42"/>
-    <mergeCell ref="BT40:BV42"/>
-    <mergeCell ref="BW40:BY42"/>
-    <mergeCell ref="BZ40:CB42"/>
-    <mergeCell ref="CC40:CE42"/>
-    <mergeCell ref="CF40:CH42"/>
-    <mergeCell ref="CI40:CK42"/>
-    <mergeCell ref="CL40:CN42"/>
-    <mergeCell ref="CO40:CQ42"/>
-    <mergeCell ref="CR40:CT42"/>
-    <mergeCell ref="CU40:CW42"/>
-    <mergeCell ref="CX40:CZ42"/>
-    <mergeCell ref="DA40:DC42"/>
-    <mergeCell ref="DD40:DF42"/>
-    <mergeCell ref="DG40:DI42"/>
-    <mergeCell ref="DJ40:DL42"/>
-    <mergeCell ref="DM40:DO42"/>
-    <mergeCell ref="DP40:DR42"/>
-    <mergeCell ref="DS40:DU42"/>
-    <mergeCell ref="DV40:DX42"/>
-    <mergeCell ref="DY40:EA42"/>
-    <mergeCell ref="EB40:ED42"/>
-    <mergeCell ref="EE40:EG42"/>
-    <mergeCell ref="EH40:EJ42"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/Admin.xlsx
+++ b/public/Admin.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="548">
   <si>
     <t>Número da Mudança</t>
   </si>
@@ -817,13 +817,6 @@
   </si>
   <si>
     <t>Alcides</t>
-  </si>
-  <si>
-    <t>05-Oct-2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cliente importante devido ao seu potencial de compra. Porém, cabe sinalizar que perdemos o último pedido de 2000 placas para a concorrência, por preço (ficamos 
- aproximadamente 25% acima). Logo, não há certeza de novas contratações. De qualquer modo, entendendo que o SW já foi desenvolvido e que trabalharemos para retomar as vendas, estou de acordo em proceder os testes de validação. Entretanto, em caso de problemas de interação, penso ser prudente  aguardar novo pedido para realização de novos ajustes e testes no SW desenvolvido. </t>
   </si>
   <si>
     <t>Alterar o padrão das bandejas de armazenamento de placas para bandejas ESD com suporte de empilhamento</t>
@@ -2334,7 +2327,7 @@
     <col min="63" max="63" width="35.277" bestFit="true" customWidth="true" style="0"/>
     <col min="64" max="64" width="23.423" bestFit="true" customWidth="true" style="0"/>
     <col min="65" max="65" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="66" max="66" width="445.891" bestFit="true" customWidth="true" style="0"/>
+    <col min="66" max="66" width="137.966" bestFit="true" customWidth="true" style="0"/>
     <col min="67" max="67" width="17.567" bestFit="true" customWidth="true" style="0"/>
     <col min="68" max="68" width="26.993" bestFit="true" customWidth="true" style="0"/>
     <col min="69" max="69" width="102.546" bestFit="true" customWidth="true" style="0"/>
@@ -6850,17 +6843,13 @@
         <v>250</v>
       </c>
       <c r="BI11"/>
-      <c r="BJ11" t="s">
-        <v>251</v>
-      </c>
+      <c r="BJ11"/>
       <c r="BK11"/>
       <c r="BL11" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="BM11"/>
-      <c r="BN11" t="s">
-        <v>252</v>
-      </c>
+      <c r="BN11"/>
       <c r="BO11"/>
       <c r="BP11" t="s">
         <v>67</v>
@@ -7084,7 +7073,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -7093,16 +7082,16 @@
         <v>1325</v>
       </c>
       <c r="F12" t="s">
+        <v>252</v>
+      </c>
+      <c r="G12" t="s">
+        <v>253</v>
+      </c>
+      <c r="H12" t="s">
         <v>254</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>255</v>
-      </c>
-      <c r="H12" t="s">
-        <v>256</v>
-      </c>
-      <c r="I12" t="s">
-        <v>257</v>
       </c>
       <c r="J12" t="s">
         <v>195</v>
@@ -7130,7 +7119,7 @@
         <v>164</v>
       </c>
       <c r="U12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="V12" t="s">
         <v>94</v>
@@ -7152,7 +7141,7 @@
         <v>97</v>
       </c>
       <c r="AD12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AF12" t="s">
         <v>99</v>
@@ -7168,7 +7157,7 @@
         <v>97</v>
       </c>
       <c r="AP12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AR12" t="s">
         <v>70</v>
@@ -7309,7 +7298,7 @@
       </c>
       <c r="DG12"/>
       <c r="DH12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="DI12"/>
       <c r="DJ12"/>
@@ -7465,7 +7454,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D13">
         <v>1323</v>
@@ -7474,16 +7463,16 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
+        <v>260</v>
+      </c>
+      <c r="G13" t="s">
+        <v>261</v>
+      </c>
+      <c r="H13" t="s">
         <v>262</v>
       </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
         <v>263</v>
-      </c>
-      <c r="H13" t="s">
-        <v>264</v>
-      </c>
-      <c r="I13" t="s">
-        <v>265</v>
       </c>
       <c r="J13" t="s">
         <v>188</v>
@@ -7515,7 +7504,7 @@
         <v>164</v>
       </c>
       <c r="U13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="V13" t="s">
         <v>94</v>
@@ -7534,10 +7523,10 @@
       </c>
       <c r="AA13"/>
       <c r="AB13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AD13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AF13" t="s">
         <v>99</v>
@@ -7553,7 +7542,7 @@
         <v>97</v>
       </c>
       <c r="AP13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AR13" t="s">
         <v>70</v>
@@ -7904,7 +7893,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D14" t="s">
         <v>83</v>
@@ -7913,13 +7902,13 @@
         <v>83</v>
       </c>
       <c r="F14" t="s">
+        <v>266</v>
+      </c>
+      <c r="G14" t="s">
+        <v>267</v>
+      </c>
+      <c r="H14" t="s">
         <v>268</v>
-      </c>
-      <c r="G14" t="s">
-        <v>269</v>
-      </c>
-      <c r="H14" t="s">
-        <v>270</v>
       </c>
       <c r="I14" t="s">
         <v>87</v>
@@ -7946,7 +7935,7 @@
         <v>92</v>
       </c>
       <c r="U14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="V14" t="s">
         <v>94</v>
@@ -7968,7 +7957,7 @@
         <v>97</v>
       </c>
       <c r="AD14" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AF14" t="s">
         <v>99</v>
@@ -7986,7 +7975,7 @@
         <v>97</v>
       </c>
       <c r="AP14" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AR14" t="s">
         <v>70</v>
@@ -8233,7 +8222,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D15" t="s">
         <v>83</v>
@@ -8242,13 +8231,13 @@
         <v>83</v>
       </c>
       <c r="F15" t="s">
+        <v>271</v>
+      </c>
+      <c r="G15" t="s">
+        <v>272</v>
+      </c>
+      <c r="H15" t="s">
         <v>273</v>
-      </c>
-      <c r="G15" t="s">
-        <v>274</v>
-      </c>
-      <c r="H15" t="s">
-        <v>275</v>
       </c>
       <c r="I15" t="s">
         <v>87</v>
@@ -8260,16 +8249,16 @@
         <v>83</v>
       </c>
       <c r="L15" t="s">
+        <v>274</v>
+      </c>
+      <c r="M15" t="s">
+        <v>275</v>
+      </c>
+      <c r="N15" t="s">
         <v>276</v>
       </c>
-      <c r="M15" t="s">
-        <v>277</v>
-      </c>
-      <c r="N15" t="s">
-        <v>278</v>
-      </c>
       <c r="O15" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="P15"/>
       <c r="Q15"/>
@@ -8283,7 +8272,7 @@
         <v>92</v>
       </c>
       <c r="U15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="V15" t="s">
         <v>94</v>
@@ -8305,7 +8294,7 @@
         <v>97</v>
       </c>
       <c r="AD15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AF15" t="s">
         <v>99</v>
@@ -8323,14 +8312,14 @@
         <v>97</v>
       </c>
       <c r="AP15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AR15" t="s">
         <v>70</v>
       </c>
       <c r="AS15"/>
       <c r="AT15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AU15"/>
       <c r="AV15" t="s">
@@ -8338,7 +8327,7 @@
       </c>
       <c r="AW15"/>
       <c r="AX15" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AY15"/>
       <c r="AZ15" t="s">
@@ -8346,7 +8335,7 @@
       </c>
       <c r="BA15"/>
       <c r="BB15" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="BC15"/>
       <c r="BD15" t="s">
@@ -8574,7 +8563,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D16" t="s">
         <v>16</v>
@@ -8583,16 +8572,16 @@
         <v>1228</v>
       </c>
       <c r="F16" t="s">
+        <v>279</v>
+      </c>
+      <c r="G16" t="s">
+        <v>280</v>
+      </c>
+      <c r="H16" t="s">
         <v>281</v>
       </c>
-      <c r="G16" t="s">
+      <c r="I16" t="s">
         <v>282</v>
-      </c>
-      <c r="H16" t="s">
-        <v>283</v>
-      </c>
-      <c r="I16" t="s">
-        <v>284</v>
       </c>
       <c r="J16" t="s">
         <v>88</v>
@@ -8613,7 +8602,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="Q16">
         <v>1</v>
@@ -8628,7 +8617,7 @@
         <v>164</v>
       </c>
       <c r="U16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="V16" t="s">
         <v>94</v>
@@ -8647,10 +8636,10 @@
       </c>
       <c r="AA16"/>
       <c r="AB16" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AD16" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AF16" t="s">
         <v>99</v>
@@ -8668,7 +8657,7 @@
         <v>97</v>
       </c>
       <c r="AP16" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AR16" t="s">
         <v>70</v>
@@ -8775,7 +8764,7 @@
         <v>129</v>
       </c>
       <c r="CP16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="CQ16"/>
       <c r="CS16"/>
@@ -8948,25 +8937,25 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E17">
         <v>1140</v>
       </c>
       <c r="F17" t="s">
+        <v>287</v>
+      </c>
+      <c r="G17" t="s">
+        <v>288</v>
+      </c>
+      <c r="H17" t="s">
         <v>289</v>
       </c>
-      <c r="G17" t="s">
+      <c r="I17" t="s">
         <v>290</v>
-      </c>
-      <c r="H17" t="s">
-        <v>291</v>
-      </c>
-      <c r="I17" t="s">
-        <v>292</v>
       </c>
       <c r="J17" t="s">
         <v>180</v>
@@ -8992,7 +8981,7 @@
         <v>175</v>
       </c>
       <c r="U17" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="V17" t="s">
         <v>94</v>
@@ -9011,10 +9000,10 @@
       </c>
       <c r="AA17"/>
       <c r="AB17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AD17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AF17" t="s">
         <v>99</v>
@@ -9030,7 +9019,7 @@
         <v>97</v>
       </c>
       <c r="AP17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AR17" t="s">
         <v>70</v>
@@ -9288,7 +9277,7 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D18" t="s">
         <v>83</v>
@@ -9297,16 +9286,16 @@
         <v>83</v>
       </c>
       <c r="F18" t="s">
+        <v>293</v>
+      </c>
+      <c r="G18" t="s">
+        <v>294</v>
+      </c>
+      <c r="H18" t="s">
         <v>295</v>
       </c>
-      <c r="G18" t="s">
+      <c r="I18" t="s">
         <v>296</v>
-      </c>
-      <c r="H18" t="s">
-        <v>297</v>
-      </c>
-      <c r="I18" t="s">
-        <v>298</v>
       </c>
       <c r="J18" t="s">
         <v>167</v>
@@ -9330,7 +9319,7 @@
         <v>164</v>
       </c>
       <c r="U18" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="V18" t="s">
         <v>94</v>
@@ -9669,7 +9658,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D19" t="s">
         <v>83</v>
@@ -9678,16 +9667,16 @@
         <v>83</v>
       </c>
       <c r="F19" t="s">
+        <v>298</v>
+      </c>
+      <c r="G19" t="s">
+        <v>299</v>
+      </c>
+      <c r="H19" t="s">
         <v>300</v>
       </c>
-      <c r="G19" t="s">
+      <c r="I19" t="s">
         <v>301</v>
-      </c>
-      <c r="H19" t="s">
-        <v>302</v>
-      </c>
-      <c r="I19" t="s">
-        <v>303</v>
       </c>
       <c r="J19" t="s">
         <v>88</v>
@@ -9696,16 +9685,16 @@
         <v>83</v>
       </c>
       <c r="L19" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M19" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="N19" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O19" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="P19"/>
       <c r="Q19"/>
@@ -9719,7 +9708,7 @@
         <v>183</v>
       </c>
       <c r="U19" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="V19" t="s">
         <v>94</v>
@@ -9734,14 +9723,14 @@
         <v>182</v>
       </c>
       <c r="Z19" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AA19"/>
       <c r="AB19" t="s">
         <v>97</v>
       </c>
       <c r="AD19" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AF19" t="s">
         <v>99</v>
@@ -9753,20 +9742,20 @@
         <v>89</v>
       </c>
       <c r="AL19" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AN19" t="s">
         <v>97</v>
       </c>
       <c r="AP19" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AR19" t="s">
         <v>70</v>
       </c>
       <c r="AS19"/>
       <c r="AT19" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AU19"/>
       <c r="AV19" t="s">
@@ -9774,7 +9763,7 @@
       </c>
       <c r="AW19"/>
       <c r="AX19" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AY19"/>
       <c r="AZ19" t="s">
@@ -9782,7 +9771,7 @@
       </c>
       <c r="BA19"/>
       <c r="BB19" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="BC19"/>
       <c r="BD19" t="s">
@@ -9993,7 +9982,7 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D20" t="s">
         <v>83</v>
@@ -10002,16 +9991,16 @@
         <v>83</v>
       </c>
       <c r="F20" t="s">
+        <v>309</v>
+      </c>
+      <c r="G20" t="s">
+        <v>310</v>
+      </c>
+      <c r="H20" t="s">
         <v>311</v>
       </c>
-      <c r="G20" t="s">
+      <c r="I20" t="s">
         <v>312</v>
-      </c>
-      <c r="H20" t="s">
-        <v>313</v>
-      </c>
-      <c r="I20" t="s">
-        <v>314</v>
       </c>
       <c r="J20" t="s">
         <v>88</v>
@@ -10039,7 +10028,7 @@
         <v>114</v>
       </c>
       <c r="U20" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="V20" t="s">
         <v>94</v>
@@ -10058,10 +10047,10 @@
       </c>
       <c r="AA20"/>
       <c r="AB20" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AD20" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AF20" t="s">
         <v>99</v>
@@ -10077,18 +10066,18 @@
         <v>101</v>
       </c>
       <c r="AP20" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AR20" t="s">
         <v>70</v>
       </c>
       <c r="AS20"/>
       <c r="AT20" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AU20"/>
       <c r="AV20" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AW20"/>
       <c r="AX20"/>
@@ -10111,17 +10100,13 @@
         <v>250</v>
       </c>
       <c r="BI20"/>
-      <c r="BJ20" t="s">
-        <v>251</v>
-      </c>
+      <c r="BJ20"/>
       <c r="BK20"/>
       <c r="BL20" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="BM20"/>
-      <c r="BN20" t="s">
-        <v>252</v>
-      </c>
+      <c r="BN20"/>
       <c r="BO20"/>
       <c r="BP20" t="s">
         <v>67</v>
@@ -10236,7 +10221,7 @@
       <c r="DL20"/>
       <c r="DM20"/>
       <c r="DN20" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="DO20"/>
       <c r="DP20"/>
@@ -10386,25 +10371,25 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D21" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E21">
         <v>1405</v>
       </c>
       <c r="F21" t="s">
+        <v>319</v>
+      </c>
+      <c r="G21" t="s">
+        <v>320</v>
+      </c>
+      <c r="H21" t="s">
         <v>321</v>
       </c>
-      <c r="G21" t="s">
+      <c r="I21" t="s">
         <v>322</v>
-      </c>
-      <c r="H21" t="s">
-        <v>323</v>
-      </c>
-      <c r="I21" t="s">
-        <v>324</v>
       </c>
       <c r="J21" t="s">
         <v>113</v>
@@ -10432,7 +10417,7 @@
         <v>114</v>
       </c>
       <c r="U21" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="V21" t="s">
         <v>94</v>
@@ -10454,7 +10439,7 @@
         <v>97</v>
       </c>
       <c r="AD21" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AF21" t="s">
         <v>99</v>
@@ -10470,18 +10455,18 @@
         <v>101</v>
       </c>
       <c r="AP21" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AR21" t="s">
         <v>70</v>
       </c>
       <c r="AS21"/>
       <c r="AT21" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AU21"/>
       <c r="AV21" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AW21"/>
       <c r="AX21"/>
@@ -10635,7 +10620,7 @@
       <c r="DR21"/>
       <c r="DS21"/>
       <c r="DT21" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="DU21"/>
       <c r="DV21"/>
@@ -10779,7 +10764,7 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D22" t="s">
         <v>83</v>
@@ -10788,16 +10773,16 @@
         <v>83</v>
       </c>
       <c r="F22" t="s">
+        <v>309</v>
+      </c>
+      <c r="G22" t="s">
+        <v>325</v>
+      </c>
+      <c r="H22" t="s">
         <v>311</v>
       </c>
-      <c r="G22" t="s">
-        <v>327</v>
-      </c>
-      <c r="H22" t="s">
-        <v>313</v>
-      </c>
       <c r="I22" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J22" t="s">
         <v>88</v>
@@ -10831,7 +10816,7 @@
         <v>114</v>
       </c>
       <c r="U22" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="V22" t="s">
         <v>94</v>
@@ -10903,17 +10888,13 @@
         <v>250</v>
       </c>
       <c r="BI22"/>
-      <c r="BJ22" t="s">
-        <v>251</v>
-      </c>
+      <c r="BJ22"/>
       <c r="BK22"/>
       <c r="BL22" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="BM22"/>
-      <c r="BN22" t="s">
-        <v>252</v>
-      </c>
+      <c r="BN22"/>
       <c r="BO22"/>
       <c r="BP22" t="s">
         <v>67</v>
@@ -11184,7 +11165,7 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D23" t="s">
         <v>83</v>
@@ -11193,16 +11174,16 @@
         <v>83</v>
       </c>
       <c r="F23" t="s">
+        <v>327</v>
+      </c>
+      <c r="G23" t="s">
+        <v>328</v>
+      </c>
+      <c r="H23" t="s">
         <v>329</v>
       </c>
-      <c r="G23" t="s">
+      <c r="I23" t="s">
         <v>330</v>
-      </c>
-      <c r="H23" t="s">
-        <v>331</v>
-      </c>
-      <c r="I23" t="s">
-        <v>332</v>
       </c>
       <c r="J23" t="s">
         <v>88</v>
@@ -11211,7 +11192,7 @@
         <v>83</v>
       </c>
       <c r="L23" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M23"/>
       <c r="N23"/>
@@ -11275,7 +11256,7 @@
       </c>
       <c r="AS23"/>
       <c r="AT23" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AU23"/>
       <c r="AV23" t="s">
@@ -11519,7 +11500,7 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D24" t="s">
         <v>83</v>
@@ -11528,13 +11509,13 @@
         <v>83</v>
       </c>
       <c r="F24" t="s">
+        <v>332</v>
+      </c>
+      <c r="G24" t="s">
+        <v>333</v>
+      </c>
+      <c r="H24" t="s">
         <v>334</v>
-      </c>
-      <c r="G24" t="s">
-        <v>335</v>
-      </c>
-      <c r="H24" t="s">
-        <v>336</v>
       </c>
       <c r="I24" t="s">
         <v>87</v>
@@ -11546,16 +11527,16 @@
         <v>83</v>
       </c>
       <c r="L24" t="s">
+        <v>274</v>
+      </c>
+      <c r="M24" t="s">
+        <v>275</v>
+      </c>
+      <c r="N24" t="s">
         <v>276</v>
       </c>
-      <c r="M24" t="s">
-        <v>277</v>
-      </c>
-      <c r="N24" t="s">
-        <v>278</v>
-      </c>
       <c r="O24" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="P24"/>
       <c r="Q24"/>
@@ -11569,7 +11550,7 @@
         <v>114</v>
       </c>
       <c r="U24" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="V24" t="s">
         <v>94</v>
@@ -11603,7 +11584,7 @@
         <v>89</v>
       </c>
       <c r="AL24" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AN24" t="s">
         <v>97</v>
@@ -11616,7 +11597,7 @@
       </c>
       <c r="AS24"/>
       <c r="AT24" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AU24"/>
       <c r="AV24" t="s">
@@ -11624,7 +11605,7 @@
       </c>
       <c r="AW24"/>
       <c r="AX24" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AY24"/>
       <c r="AZ24" t="s">
@@ -11632,7 +11613,7 @@
       </c>
       <c r="BA24"/>
       <c r="BB24" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="BC24"/>
       <c r="BD24" t="s">
@@ -11860,7 +11841,7 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D25" t="s">
         <v>25</v>
@@ -11869,16 +11850,16 @@
         <v>1423</v>
       </c>
       <c r="F25" t="s">
+        <v>338</v>
+      </c>
+      <c r="G25" t="s">
+        <v>339</v>
+      </c>
+      <c r="H25" t="s">
         <v>340</v>
       </c>
-      <c r="G25" t="s">
+      <c r="I25" t="s">
         <v>341</v>
-      </c>
-      <c r="H25" t="s">
-        <v>342</v>
-      </c>
-      <c r="I25" t="s">
-        <v>343</v>
       </c>
       <c r="J25" t="s">
         <v>190</v>
@@ -11893,7 +11874,7 @@
         <v>204</v>
       </c>
       <c r="N25" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="O25" t="s">
         <v>204</v>
@@ -11907,10 +11888,10 @@
         <v>190</v>
       </c>
       <c r="T25" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="U25" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="V25" t="s">
         <v>94</v>
@@ -11929,10 +11910,10 @@
       </c>
       <c r="AA25"/>
       <c r="AB25" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AD25" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AF25" t="s">
         <v>99</v>
@@ -11948,7 +11929,7 @@
         <v>97</v>
       </c>
       <c r="AP25" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AR25" t="s">
         <v>70</v>
@@ -11971,7 +11952,7 @@
       </c>
       <c r="BA25"/>
       <c r="BB25" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="BC25"/>
       <c r="BD25" t="s">
@@ -12182,7 +12163,7 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D26" t="s">
         <v>83</v>
@@ -12191,16 +12172,16 @@
         <v>83</v>
       </c>
       <c r="F26" t="s">
+        <v>347</v>
+      </c>
+      <c r="G26" t="s">
+        <v>348</v>
+      </c>
+      <c r="H26" t="s">
+        <v>348</v>
+      </c>
+      <c r="I26" t="s">
         <v>349</v>
-      </c>
-      <c r="G26" t="s">
-        <v>350</v>
-      </c>
-      <c r="H26" t="s">
-        <v>350</v>
-      </c>
-      <c r="I26" t="s">
-        <v>351</v>
       </c>
       <c r="J26" t="s">
         <v>88</v>
@@ -12226,7 +12207,7 @@
         <v>109</v>
       </c>
       <c r="U26" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="V26" t="s">
         <v>94</v>
@@ -12502,7 +12483,7 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D27" t="s">
         <v>83</v>
@@ -12511,16 +12492,16 @@
         <v>83</v>
       </c>
       <c r="F27" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G27" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H27" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I27" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="J27" t="s">
         <v>88</v>
@@ -12552,7 +12533,7 @@
         <v>109</v>
       </c>
       <c r="U27" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="V27" t="s">
         <v>94</v>
@@ -12617,7 +12598,7 @@
       </c>
       <c r="BA27"/>
       <c r="BB27" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="BC27"/>
       <c r="BD27" t="s">
@@ -12832,25 +12813,25 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D28" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E28">
         <v>1025</v>
       </c>
       <c r="F28" t="s">
+        <v>356</v>
+      </c>
+      <c r="G28" t="s">
+        <v>357</v>
+      </c>
+      <c r="H28" t="s">
         <v>358</v>
       </c>
-      <c r="G28" t="s">
+      <c r="I28" t="s">
         <v>359</v>
-      </c>
-      <c r="H28" t="s">
-        <v>360</v>
-      </c>
-      <c r="I28" t="s">
-        <v>361</v>
       </c>
       <c r="J28" t="s">
         <v>167</v>
@@ -12873,10 +12854,10 @@
         <v>167</v>
       </c>
       <c r="T28" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="U28" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="V28" t="s">
         <v>94</v>
@@ -12895,10 +12876,10 @@
       </c>
       <c r="AA28"/>
       <c r="AB28" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AD28" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AF28" t="s">
         <v>99</v>
@@ -12914,7 +12895,7 @@
         <v>97</v>
       </c>
       <c r="AP28" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AR28" t="s">
         <v>70</v>
@@ -13203,25 +13184,25 @@
         <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D29" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E29">
         <v>1405</v>
       </c>
       <c r="F29" t="s">
+        <v>319</v>
+      </c>
+      <c r="G29" t="s">
+        <v>320</v>
+      </c>
+      <c r="H29" t="s">
         <v>321</v>
       </c>
-      <c r="G29" t="s">
+      <c r="I29" t="s">
         <v>322</v>
-      </c>
-      <c r="H29" t="s">
-        <v>323</v>
-      </c>
-      <c r="I29" t="s">
-        <v>324</v>
       </c>
       <c r="J29" t="s">
         <v>113</v>
@@ -13233,16 +13214,16 @@
         <v>140</v>
       </c>
       <c r="M29" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="N29" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="O29" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="P29" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -13257,7 +13238,7 @@
         <v>114</v>
       </c>
       <c r="U29" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="V29" t="s">
         <v>94</v>
@@ -13276,10 +13257,10 @@
       </c>
       <c r="AA29"/>
       <c r="AB29" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AD29" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AF29" t="s">
         <v>99</v>
@@ -13295,7 +13276,7 @@
         <v>97</v>
       </c>
       <c r="AP29" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AR29" t="s">
         <v>70</v>
@@ -13465,13 +13446,13 @@
         <v>140</v>
       </c>
       <c r="DS29" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="DT29" t="s">
         <v>129</v>
       </c>
       <c r="DU29" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="DV29"/>
       <c r="DW29"/>
@@ -13632,7 +13613,7 @@
         <v>29</v>
       </c>
       <c r="I30" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="J30" t="s">
         <v>88</v>
@@ -13677,10 +13658,10 @@
       </c>
       <c r="AA30"/>
       <c r="AB30" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AD30" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AF30" t="s">
         <v>99</v>
@@ -13698,7 +13679,7 @@
         <v>97</v>
       </c>
       <c r="AP30" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AR30" t="s">
         <v>70</v>
@@ -13945,25 +13926,25 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D31" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E31">
         <v>1171</v>
       </c>
       <c r="F31" t="s">
+        <v>368</v>
+      </c>
+      <c r="G31" t="s">
         <v>370</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
+        <v>371</v>
+      </c>
+      <c r="I31" t="s">
         <v>372</v>
-      </c>
-      <c r="H31" t="s">
-        <v>373</v>
-      </c>
-      <c r="I31" t="s">
-        <v>374</v>
       </c>
       <c r="J31" t="s">
         <v>88</v>
@@ -13989,7 +13970,7 @@
         <v>175</v>
       </c>
       <c r="U31" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="V31" t="s">
         <v>94</v>
@@ -14008,10 +13989,10 @@
       </c>
       <c r="AA31"/>
       <c r="AB31" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AD31" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AF31" t="s">
         <v>99</v>
@@ -14029,7 +14010,7 @@
         <v>97</v>
       </c>
       <c r="AP31" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AR31" t="s">
         <v>70</v>
@@ -14063,17 +14044,13 @@
         <v>250</v>
       </c>
       <c r="BI31"/>
-      <c r="BJ31" t="s">
-        <v>251</v>
-      </c>
+      <c r="BJ31"/>
       <c r="BK31"/>
       <c r="BL31" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="BM31"/>
-      <c r="BN31" t="s">
-        <v>252</v>
-      </c>
+      <c r="BN31"/>
       <c r="BO31"/>
       <c r="BP31" t="s">
         <v>67</v>
@@ -14418,7 +14395,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D32" t="s">
         <v>83</v>
@@ -14427,16 +14404,16 @@
         <v>83</v>
       </c>
       <c r="F32" t="s">
+        <v>375</v>
+      </c>
+      <c r="G32" t="s">
+        <v>376</v>
+      </c>
+      <c r="H32" t="s">
         <v>377</v>
       </c>
-      <c r="G32" t="s">
+      <c r="I32" t="s">
         <v>378</v>
-      </c>
-      <c r="H32" t="s">
-        <v>379</v>
-      </c>
-      <c r="I32" t="s">
-        <v>380</v>
       </c>
       <c r="J32" t="s">
         <v>88</v>
@@ -14462,7 +14439,7 @@
         <v>137</v>
       </c>
       <c r="U32" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="V32" t="s">
         <v>94</v>
@@ -14783,7 +14760,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D33" t="s">
         <v>83</v>
@@ -14792,16 +14769,16 @@
         <v>83</v>
       </c>
       <c r="F33" t="s">
+        <v>381</v>
+      </c>
+      <c r="G33" t="s">
+        <v>382</v>
+      </c>
+      <c r="H33" t="s">
         <v>383</v>
       </c>
-      <c r="G33" t="s">
-        <v>384</v>
-      </c>
-      <c r="H33" t="s">
-        <v>385</v>
-      </c>
       <c r="I33" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="J33" t="s">
         <v>88</v>
@@ -14813,13 +14790,13 @@
         <v>109</v>
       </c>
       <c r="M33" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="N33" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="O33" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="P33"/>
       <c r="Q33">
@@ -14890,15 +14867,15 @@
       </c>
       <c r="AW33"/>
       <c r="AX33" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AY33"/>
       <c r="AZ33" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="BA33"/>
       <c r="BB33" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="BC33"/>
       <c r="BD33" t="s">
@@ -14940,7 +14917,7 @@
       <c r="BV33"/>
       <c r="BW33"/>
       <c r="BX33" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="BY33"/>
       <c r="BZ33"/>
@@ -15126,7 +15103,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D34" t="s">
         <v>83</v>
@@ -15135,16 +15112,16 @@
         <v>83</v>
       </c>
       <c r="F34" t="s">
+        <v>387</v>
+      </c>
+      <c r="G34" t="s">
+        <v>388</v>
+      </c>
+      <c r="H34" t="s">
         <v>389</v>
       </c>
-      <c r="G34" t="s">
+      <c r="I34" t="s">
         <v>390</v>
-      </c>
-      <c r="H34" t="s">
-        <v>391</v>
-      </c>
-      <c r="I34" t="s">
-        <v>392</v>
       </c>
       <c r="J34" t="s">
         <v>88</v>
@@ -15248,17 +15225,13 @@
         <v>250</v>
       </c>
       <c r="BI34"/>
-      <c r="BJ34" t="s">
-        <v>251</v>
-      </c>
+      <c r="BJ34"/>
       <c r="BK34"/>
       <c r="BL34" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="BM34"/>
-      <c r="BN34" t="s">
-        <v>252</v>
-      </c>
+      <c r="BN34"/>
       <c r="BO34"/>
       <c r="BP34" t="s">
         <v>67</v>
@@ -15519,7 +15492,7 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D35" t="s">
         <v>83</v>
@@ -15528,16 +15501,16 @@
         <v>83</v>
       </c>
       <c r="F35" t="s">
+        <v>392</v>
+      </c>
+      <c r="G35" t="s">
+        <v>393</v>
+      </c>
+      <c r="H35" t="s">
         <v>394</v>
       </c>
-      <c r="G35" t="s">
-        <v>395</v>
-      </c>
-      <c r="H35" t="s">
-        <v>396</v>
-      </c>
       <c r="I35" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J35" t="s">
         <v>88</v>
@@ -15549,13 +15522,13 @@
         <v>109</v>
       </c>
       <c r="M35" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="N35" t="s">
         <v>227</v>
       </c>
       <c r="O35" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="P35"/>
       <c r="Q35">
@@ -15605,7 +15578,7 @@
         <v>89</v>
       </c>
       <c r="AL35" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AN35" t="s">
         <v>97</v>
@@ -15626,7 +15599,7 @@
       </c>
       <c r="AW35"/>
       <c r="AX35" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AY35"/>
       <c r="AZ35" t="s">
@@ -15647,17 +15620,13 @@
         <v>250</v>
       </c>
       <c r="BI35"/>
-      <c r="BJ35" t="s">
-        <v>251</v>
-      </c>
+      <c r="BJ35"/>
       <c r="BK35"/>
       <c r="BL35" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="BM35"/>
-      <c r="BN35" t="s">
-        <v>252</v>
-      </c>
+      <c r="BN35"/>
       <c r="BO35"/>
       <c r="BP35" t="s">
         <v>67</v>
@@ -15928,7 +15897,7 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D36" t="s">
         <v>83</v>
@@ -15937,16 +15906,16 @@
         <v>83</v>
       </c>
       <c r="F36" t="s">
+        <v>399</v>
+      </c>
+      <c r="G36" t="s">
+        <v>400</v>
+      </c>
+      <c r="H36" t="s">
         <v>401</v>
       </c>
-      <c r="G36" t="s">
+      <c r="I36" t="s">
         <v>402</v>
-      </c>
-      <c r="H36" t="s">
-        <v>403</v>
-      </c>
-      <c r="I36" t="s">
-        <v>404</v>
       </c>
       <c r="J36" t="s">
         <v>88</v>
@@ -15992,7 +15961,7 @@
         <v>97</v>
       </c>
       <c r="AD36" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AF36" t="s">
         <v>99</v>
@@ -16010,7 +15979,7 @@
         <v>97</v>
       </c>
       <c r="AP36" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AR36" t="s">
         <v>70</v>
@@ -16044,17 +16013,13 @@
         <v>250</v>
       </c>
       <c r="BI36"/>
-      <c r="BJ36" t="s">
-        <v>251</v>
-      </c>
+      <c r="BJ36"/>
       <c r="BK36"/>
       <c r="BL36" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="BM36"/>
-      <c r="BN36" t="s">
-        <v>252</v>
-      </c>
+      <c r="BN36"/>
       <c r="BO36"/>
       <c r="BP36" t="s">
         <v>67</v>
@@ -16347,7 +16312,7 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D37" t="s">
         <v>83</v>
@@ -16356,16 +16321,16 @@
         <v>83</v>
       </c>
       <c r="F37" t="s">
+        <v>404</v>
+      </c>
+      <c r="G37" t="s">
+        <v>405</v>
+      </c>
+      <c r="H37" t="s">
         <v>406</v>
       </c>
-      <c r="G37" t="s">
+      <c r="I37" t="s">
         <v>407</v>
-      </c>
-      <c r="H37" t="s">
-        <v>408</v>
-      </c>
-      <c r="I37" t="s">
-        <v>409</v>
       </c>
       <c r="J37" t="s">
         <v>191</v>
@@ -16377,13 +16342,13 @@
         <v>89</v>
       </c>
       <c r="M37" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="N37" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="O37" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="P37"/>
       <c r="Q37">
@@ -16399,7 +16364,7 @@
         <v>178</v>
       </c>
       <c r="U37" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="V37" t="s">
         <v>94</v>
@@ -16452,15 +16417,15 @@
       </c>
       <c r="AW37"/>
       <c r="AX37" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AY37"/>
       <c r="AZ37" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="BA37"/>
       <c r="BB37" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="BC37"/>
       <c r="BD37" t="s">
@@ -16523,7 +16488,7 @@
       <c r="CE37"/>
       <c r="CF37"/>
       <c r="CG37" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="CH37"/>
       <c r="CI37"/>
@@ -16703,7 +16668,7 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D38" t="s">
         <v>83</v>
@@ -16712,16 +16677,16 @@
         <v>83</v>
       </c>
       <c r="F38" t="s">
+        <v>412</v>
+      </c>
+      <c r="G38" t="s">
+        <v>413</v>
+      </c>
+      <c r="H38" t="s">
         <v>414</v>
       </c>
-      <c r="G38" t="s">
+      <c r="I38" t="s">
         <v>415</v>
-      </c>
-      <c r="H38" t="s">
-        <v>416</v>
-      </c>
-      <c r="I38" t="s">
-        <v>417</v>
       </c>
       <c r="J38" t="s">
         <v>190</v>
@@ -16733,13 +16698,13 @@
         <v>155</v>
       </c>
       <c r="M38" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="N38" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="O38" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="P38"/>
       <c r="Q38"/>
@@ -16811,7 +16776,7 @@
       </c>
       <c r="AV38"/>
       <c r="AW38" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AX38"/>
       <c r="AY38" t="s">
@@ -16831,7 +16796,7 @@
       </c>
       <c r="BH38"/>
       <c r="BI38" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="BJ38"/>
       <c r="BK38"/>
@@ -17310,7 +17275,7 @@
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D39" t="s">
         <v>83</v>
@@ -17319,16 +17284,16 @@
         <v>83</v>
       </c>
       <c r="F39" t="s">
+        <v>412</v>
+      </c>
+      <c r="G39" t="s">
+        <v>413</v>
+      </c>
+      <c r="H39" t="s">
         <v>414</v>
       </c>
-      <c r="G39" t="s">
-        <v>415</v>
-      </c>
-      <c r="H39" t="s">
-        <v>416</v>
-      </c>
       <c r="I39" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="J39" t="s">
         <v>190</v>
@@ -17409,7 +17374,7 @@
         <v>67</v>
       </c>
       <c r="AV39" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AW39" t="s">
         <v>154</v>
@@ -17456,7 +17421,7 @@
       </c>
       <c r="BT39"/>
       <c r="BU39" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="BV39"/>
       <c r="BW39" t="s">
@@ -17474,7 +17439,7 @@
       </c>
       <c r="CD39"/>
       <c r="CE39" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="CF39"/>
       <c r="CG39"/>
@@ -17492,7 +17457,7 @@
       <c r="CO39"/>
       <c r="CP39"/>
       <c r="CQ39" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="CR39"/>
       <c r="CS39"/>
@@ -17911,7 +17876,7 @@
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D40" t="s">
         <v>38</v>
@@ -17920,16 +17885,16 @@
         <v>1444</v>
       </c>
       <c r="F40" t="s">
+        <v>422</v>
+      </c>
+      <c r="G40" t="s">
+        <v>423</v>
+      </c>
+      <c r="H40" t="s">
         <v>424</v>
       </c>
-      <c r="G40" t="s">
+      <c r="I40" t="s">
         <v>425</v>
-      </c>
-      <c r="H40" t="s">
-        <v>426</v>
-      </c>
-      <c r="I40" t="s">
-        <v>427</v>
       </c>
       <c r="J40" t="s">
         <v>167</v>
@@ -17955,7 +17920,7 @@
         <v>164</v>
       </c>
       <c r="U40" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="V40" t="s">
         <v>94</v>
@@ -17974,10 +17939,10 @@
       </c>
       <c r="AA40"/>
       <c r="AB40" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AD40" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AF40" t="s">
         <v>99</v>
@@ -17993,7 +17958,7 @@
         <v>97</v>
       </c>
       <c r="AP40" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AR40" t="s">
         <v>70</v>
@@ -18314,7 +18279,7 @@
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D41" t="s">
         <v>83</v>
@@ -18323,16 +18288,16 @@
         <v>83</v>
       </c>
       <c r="F41" t="s">
+        <v>427</v>
+      </c>
+      <c r="G41" t="s">
+        <v>428</v>
+      </c>
+      <c r="H41" t="s">
         <v>429</v>
       </c>
-      <c r="G41" t="s">
+      <c r="I41" t="s">
         <v>430</v>
-      </c>
-      <c r="H41" t="s">
-        <v>431</v>
-      </c>
-      <c r="I41" t="s">
-        <v>432</v>
       </c>
       <c r="J41" t="s">
         <v>249</v>
@@ -18358,7 +18323,7 @@
         <v>92</v>
       </c>
       <c r="U41" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="V41" t="s">
         <v>94</v>
@@ -18380,7 +18345,7 @@
         <v>97</v>
       </c>
       <c r="AD41" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AF41" t="s">
         <v>99</v>
@@ -18389,16 +18354,16 @@
         <v>249</v>
       </c>
       <c r="AJ41" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AL41" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AN41" t="s">
         <v>97</v>
       </c>
       <c r="AP41" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AR41" t="s">
         <v>70</v>
@@ -18432,17 +18397,13 @@
         <v>250</v>
       </c>
       <c r="BI41"/>
-      <c r="BJ41" t="s">
-        <v>251</v>
-      </c>
+      <c r="BJ41"/>
       <c r="BK41"/>
       <c r="BL41" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="BM41"/>
-      <c r="BN41" t="s">
-        <v>252</v>
-      </c>
+      <c r="BN41"/>
       <c r="BO41"/>
       <c r="BP41" t="s">
         <v>67</v>
@@ -18889,7 +18850,7 @@
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D42" t="s">
         <v>83</v>
@@ -18898,16 +18859,16 @@
         <v>83</v>
       </c>
       <c r="F42" t="s">
+        <v>435</v>
+      </c>
+      <c r="G42" t="s">
+        <v>436</v>
+      </c>
+      <c r="H42" t="s">
         <v>437</v>
       </c>
-      <c r="G42" t="s">
+      <c r="I42" t="s">
         <v>438</v>
-      </c>
-      <c r="H42" t="s">
-        <v>439</v>
-      </c>
-      <c r="I42" t="s">
-        <v>440</v>
       </c>
       <c r="J42" t="s">
         <v>191</v>
@@ -19288,7 +19249,7 @@
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D43" t="s">
         <v>83</v>
@@ -19297,16 +19258,16 @@
         <v>83</v>
       </c>
       <c r="F43" t="s">
+        <v>440</v>
+      </c>
+      <c r="G43" t="s">
+        <v>441</v>
+      </c>
+      <c r="H43" t="s">
+        <v>441</v>
+      </c>
+      <c r="I43" t="s">
         <v>442</v>
-      </c>
-      <c r="G43" t="s">
-        <v>443</v>
-      </c>
-      <c r="H43" t="s">
-        <v>443</v>
-      </c>
-      <c r="I43" t="s">
-        <v>444</v>
       </c>
       <c r="J43" t="s">
         <v>88</v>
@@ -19332,7 +19293,7 @@
         <v>183</v>
       </c>
       <c r="U43" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="V43" t="s">
         <v>94</v>
@@ -19347,16 +19308,16 @@
         <v>182</v>
       </c>
       <c r="Z43" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AA43" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AB43" t="s">
         <v>97</v>
       </c>
       <c r="AD43" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AF43" t="s">
         <v>99</v>
@@ -19374,7 +19335,7 @@
         <v>97</v>
       </c>
       <c r="AP43" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AR43" t="s">
         <v>70</v>
@@ -19640,7 +19601,7 @@
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D44" t="s">
         <v>83</v>
@@ -19649,16 +19610,16 @@
         <v>83</v>
       </c>
       <c r="F44" t="s">
+        <v>445</v>
+      </c>
+      <c r="G44" t="s">
+        <v>446</v>
+      </c>
+      <c r="H44" t="s">
         <v>447</v>
       </c>
-      <c r="G44" t="s">
-        <v>448</v>
-      </c>
-      <c r="H44" t="s">
-        <v>449</v>
-      </c>
       <c r="I44" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="J44" t="s">
         <v>88</v>
@@ -19667,16 +19628,16 @@
         <v>83</v>
       </c>
       <c r="L44" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M44" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="N44" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="O44" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="P44"/>
       <c r="Q44"/>
@@ -19748,7 +19709,7 @@
       </c>
       <c r="AV44"/>
       <c r="AW44" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AX44"/>
       <c r="AY44" t="s">
@@ -19768,7 +19729,7 @@
       </c>
       <c r="BH44"/>
       <c r="BI44" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="BJ44"/>
       <c r="BK44"/>
@@ -20247,7 +20208,7 @@
         <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D45" t="s">
         <v>83</v>
@@ -20256,16 +20217,16 @@
         <v>83</v>
       </c>
       <c r="F45" t="s">
+        <v>450</v>
+      </c>
+      <c r="G45" t="s">
+        <v>451</v>
+      </c>
+      <c r="H45" t="s">
         <v>452</v>
       </c>
-      <c r="G45" t="s">
+      <c r="I45" t="s">
         <v>453</v>
-      </c>
-      <c r="H45" t="s">
-        <v>454</v>
-      </c>
-      <c r="I45" t="s">
-        <v>455</v>
       </c>
       <c r="J45" t="s">
         <v>167</v>
@@ -20288,10 +20249,10 @@
         <v>167</v>
       </c>
       <c r="T45" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="U45" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="V45" t="s">
         <v>94</v>
@@ -20309,7 +20270,7 @@
         <v>116</v>
       </c>
       <c r="AA45" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AB45" t="s">
         <v>97</v>
@@ -20327,7 +20288,7 @@
         <v>116</v>
       </c>
       <c r="AL45" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AN45" t="s">
         <v>97</v>
@@ -20638,7 +20599,7 @@
         <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D46" t="s">
         <v>83</v>
@@ -20647,16 +20608,16 @@
         <v>83</v>
       </c>
       <c r="F46" t="s">
+        <v>456</v>
+      </c>
+      <c r="G46" t="s">
+        <v>457</v>
+      </c>
+      <c r="H46" t="s">
         <v>458</v>
       </c>
-      <c r="G46" t="s">
+      <c r="I46" t="s">
         <v>459</v>
-      </c>
-      <c r="H46" t="s">
-        <v>460</v>
-      </c>
-      <c r="I46" t="s">
-        <v>461</v>
       </c>
       <c r="J46" t="s">
         <v>177</v>
@@ -20665,7 +20626,7 @@
         <v>83</v>
       </c>
       <c r="L46" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="M46"/>
       <c r="N46"/>
@@ -20682,7 +20643,7 @@
         <v>178</v>
       </c>
       <c r="U46" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="V46" t="s">
         <v>94</v>
@@ -20700,13 +20661,13 @@
         <v>96</v>
       </c>
       <c r="AA46" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AB46" t="s">
         <v>97</v>
       </c>
       <c r="AD46" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AF46" t="s">
         <v>99</v>
@@ -20724,18 +20685,18 @@
         <v>97</v>
       </c>
       <c r="AP46" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AR46" t="s">
         <v>70</v>
       </c>
       <c r="AS46"/>
       <c r="AT46" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AU46"/>
       <c r="AV46" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AW46"/>
       <c r="AX46"/>
@@ -21061,7 +21022,7 @@
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D47" t="s">
         <v>83</v>
@@ -21070,16 +21031,16 @@
         <v>83</v>
       </c>
       <c r="F47" t="s">
+        <v>462</v>
+      </c>
+      <c r="G47" t="s">
+        <v>463</v>
+      </c>
+      <c r="H47" t="s">
         <v>464</v>
       </c>
-      <c r="G47" t="s">
+      <c r="I47" t="s">
         <v>465</v>
-      </c>
-      <c r="H47" t="s">
-        <v>466</v>
-      </c>
-      <c r="I47" t="s">
-        <v>467</v>
       </c>
       <c r="J47" t="s">
         <v>177</v>
@@ -21128,10 +21089,10 @@
         <v>204</v>
       </c>
       <c r="AB47" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AD47" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="AF47" t="s">
         <v>99</v>
@@ -21147,18 +21108,18 @@
         <v>101</v>
       </c>
       <c r="AP47" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="AR47" t="s">
         <v>70</v>
       </c>
       <c r="AS47"/>
       <c r="AT47" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AU47"/>
       <c r="AV47" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AW47"/>
       <c r="AX47"/>
@@ -21253,7 +21214,7 @@
         <v>67</v>
       </c>
       <c r="CS47" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="CT47" t="s">
         <v>123</v>
@@ -21267,7 +21228,7 @@
         <v>67</v>
       </c>
       <c r="CY47" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="CZ47"/>
       <c r="DA47"/>
@@ -21282,7 +21243,7 @@
       <c r="DF47"/>
       <c r="DG47"/>
       <c r="DH47" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="DI47"/>
       <c r="DJ47"/>
@@ -21438,7 +21399,7 @@
         <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D48" t="s">
         <v>83</v>
@@ -21447,16 +21408,16 @@
         <v>83</v>
       </c>
       <c r="F48" t="s">
+        <v>468</v>
+      </c>
+      <c r="G48" t="s">
+        <v>469</v>
+      </c>
+      <c r="H48" t="s">
         <v>470</v>
       </c>
-      <c r="G48" t="s">
+      <c r="I48" t="s">
         <v>471</v>
-      </c>
-      <c r="H48" t="s">
-        <v>472</v>
-      </c>
-      <c r="I48" t="s">
-        <v>473</v>
       </c>
       <c r="J48" t="s">
         <v>88</v>
@@ -21801,7 +21762,7 @@
         <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D49" t="s">
         <v>83</v>
@@ -21810,16 +21771,16 @@
         <v>83</v>
       </c>
       <c r="F49" t="s">
+        <v>473</v>
+      </c>
+      <c r="G49" t="s">
+        <v>474</v>
+      </c>
+      <c r="H49" t="s">
         <v>475</v>
       </c>
-      <c r="G49" t="s">
+      <c r="I49" t="s">
         <v>476</v>
-      </c>
-      <c r="H49" t="s">
-        <v>477</v>
-      </c>
-      <c r="I49" t="s">
-        <v>478</v>
       </c>
       <c r="J49" t="s">
         <v>88</v>
@@ -22172,7 +22133,7 @@
         <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D50" t="s">
         <v>48</v>
@@ -22181,16 +22142,16 @@
         <v>1494</v>
       </c>
       <c r="F50" t="s">
+        <v>478</v>
+      </c>
+      <c r="G50" t="s">
+        <v>479</v>
+      </c>
+      <c r="H50" t="s">
         <v>480</v>
       </c>
-      <c r="G50" t="s">
-        <v>481</v>
-      </c>
-      <c r="H50" t="s">
-        <v>482</v>
-      </c>
       <c r="I50" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="J50" t="s">
         <v>88</v>
@@ -22221,7 +22182,7 @@
         <v>113</v>
       </c>
       <c r="T50" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="U50" t="s">
         <v>220</v>
@@ -22245,10 +22206,10 @@
         <v>220</v>
       </c>
       <c r="AB50" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AD50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AF50" t="s">
         <v>99</v>
@@ -22263,10 +22224,10 @@
         <v>100</v>
       </c>
       <c r="AN50" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AP50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AR50" t="s">
         <v>70</v>
@@ -22327,7 +22288,7 @@
       <c r="BV50"/>
       <c r="BW50"/>
       <c r="BX50" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="BY50"/>
       <c r="BZ50"/>
@@ -22513,7 +22474,7 @@
         <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D51" t="s">
         <v>83</v>
@@ -22522,16 +22483,16 @@
         <v>83</v>
       </c>
       <c r="F51" t="s">
+        <v>483</v>
+      </c>
+      <c r="G51" t="s">
+        <v>484</v>
+      </c>
+      <c r="H51" t="s">
         <v>485</v>
       </c>
-      <c r="G51" t="s">
+      <c r="I51" t="s">
         <v>486</v>
-      </c>
-      <c r="H51" t="s">
-        <v>487</v>
-      </c>
-      <c r="I51" t="s">
-        <v>488</v>
       </c>
       <c r="J51" t="s">
         <v>174</v>
@@ -22872,7 +22833,7 @@
         <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D52" t="s">
         <v>83</v>
@@ -22881,16 +22842,16 @@
         <v>83</v>
       </c>
       <c r="F52" t="s">
+        <v>488</v>
+      </c>
+      <c r="G52" t="s">
+        <v>489</v>
+      </c>
+      <c r="H52" t="s">
         <v>490</v>
       </c>
-      <c r="G52" t="s">
+      <c r="I52" t="s">
         <v>491</v>
-      </c>
-      <c r="H52" t="s">
-        <v>492</v>
-      </c>
-      <c r="I52" t="s">
-        <v>493</v>
       </c>
       <c r="J52" t="s">
         <v>188</v>
@@ -22934,7 +22895,7 @@
         <v>116</v>
       </c>
       <c r="AA52" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AB52" t="s">
         <v>97</v>
@@ -22952,7 +22913,7 @@
         <v>116</v>
       </c>
       <c r="AL52" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AN52" t="s">
         <v>97</v>
@@ -23251,7 +23212,7 @@
         <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D53" t="s">
         <v>83</v>
@@ -23260,16 +23221,16 @@
         <v>83</v>
       </c>
       <c r="F53" t="s">
+        <v>494</v>
+      </c>
+      <c r="G53" t="s">
+        <v>495</v>
+      </c>
+      <c r="H53" t="s">
         <v>496</v>
       </c>
-      <c r="G53" t="s">
-        <v>497</v>
-      </c>
-      <c r="H53" t="s">
-        <v>498</v>
-      </c>
       <c r="I53" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="J53" t="s">
         <v>88</v>
@@ -23292,10 +23253,10 @@
         <v>113</v>
       </c>
       <c r="T53" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="U53" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="V53" t="s">
         <v>94</v>
@@ -23313,7 +23274,7 @@
         <v>116</v>
       </c>
       <c r="AA53" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AB53" t="s">
         <v>97</v>
@@ -23588,7 +23549,7 @@
         <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D54" t="s">
         <v>83</v>
@@ -23597,16 +23558,16 @@
         <v>83</v>
       </c>
       <c r="F54" t="s">
+        <v>499</v>
+      </c>
+      <c r="G54" t="s">
+        <v>500</v>
+      </c>
+      <c r="H54" t="s">
         <v>501</v>
       </c>
-      <c r="G54" t="s">
+      <c r="I54" t="s">
         <v>502</v>
-      </c>
-      <c r="H54" t="s">
-        <v>503</v>
-      </c>
-      <c r="I54" t="s">
-        <v>504</v>
       </c>
       <c r="J54" t="s">
         <v>182</v>
@@ -23615,16 +23576,16 @@
         <v>83</v>
       </c>
       <c r="L54" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="M54" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="N54" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O54" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="P54"/>
       <c r="Q54">
@@ -23640,7 +23601,7 @@
         <v>183</v>
       </c>
       <c r="U54" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="V54" t="s">
         <v>94</v>
@@ -23655,16 +23616,16 @@
         <v>182</v>
       </c>
       <c r="Z54" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AA54" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AB54" t="s">
         <v>97</v>
       </c>
       <c r="AD54" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AF54" t="s">
         <v>99</v>
@@ -23673,23 +23634,23 @@
         <v>182</v>
       </c>
       <c r="AJ54" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AL54" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AN54" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AP54" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AR54" t="s">
         <v>70</v>
       </c>
       <c r="AS54"/>
       <c r="AT54" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AU54"/>
       <c r="AV54" t="s">
@@ -23716,17 +23677,13 @@
         <v>250</v>
       </c>
       <c r="BI54"/>
-      <c r="BJ54" t="s">
-        <v>251</v>
-      </c>
+      <c r="BJ54"/>
       <c r="BK54"/>
       <c r="BL54" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="BM54"/>
-      <c r="BN54" t="s">
-        <v>252</v>
-      </c>
+      <c r="BN54"/>
       <c r="BO54"/>
       <c r="BP54" t="s">
         <v>67</v>
@@ -23843,11 +23800,11 @@
         <v>169</v>
       </c>
       <c r="DR54" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="DS54"/>
       <c r="DT54" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="DU54"/>
       <c r="DV54"/>
@@ -23991,7 +23948,7 @@
         <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D55" t="s">
         <v>83</v>
@@ -24000,16 +23957,16 @@
         <v>83</v>
       </c>
       <c r="F55" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G55" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H55" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I55" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J55" t="s">
         <v>88</v>
@@ -24018,7 +23975,7 @@
         <v>83</v>
       </c>
       <c r="L55" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M55"/>
       <c r="N55"/>
@@ -24035,7 +23992,7 @@
         <v>183</v>
       </c>
       <c r="U55" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="V55" t="s">
         <v>94</v>
@@ -24050,16 +24007,16 @@
         <v>182</v>
       </c>
       <c r="Z55" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AA55" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AB55" t="s">
         <v>97</v>
       </c>
       <c r="AD55" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AF55" t="s">
         <v>99</v>
@@ -24077,14 +24034,14 @@
         <v>97</v>
       </c>
       <c r="AP55" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AR55" t="s">
         <v>70</v>
       </c>
       <c r="AS55"/>
       <c r="AT55" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AU55"/>
       <c r="AV55" t="s">
@@ -24111,17 +24068,13 @@
         <v>250</v>
       </c>
       <c r="BI55"/>
-      <c r="BJ55" t="s">
-        <v>251</v>
-      </c>
+      <c r="BJ55"/>
       <c r="BK55"/>
       <c r="BL55" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="BM55"/>
-      <c r="BN55" t="s">
-        <v>252</v>
-      </c>
+      <c r="BN55"/>
       <c r="BO55"/>
       <c r="BP55" t="s">
         <v>67</v>
@@ -24345,7 +24298,7 @@
         <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D56" t="s">
         <v>83</v>
@@ -24354,16 +24307,16 @@
         <v>83</v>
       </c>
       <c r="F56" t="s">
+        <v>507</v>
+      </c>
+      <c r="G56" t="s">
+        <v>508</v>
+      </c>
+      <c r="H56" t="s">
         <v>509</v>
       </c>
-      <c r="G56" t="s">
+      <c r="I56" t="s">
         <v>510</v>
-      </c>
-      <c r="H56" t="s">
-        <v>511</v>
-      </c>
-      <c r="I56" t="s">
-        <v>512</v>
       </c>
       <c r="J56" t="s">
         <v>88</v>
@@ -24372,7 +24325,7 @@
         <v>83</v>
       </c>
       <c r="L56" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M56"/>
       <c r="N56"/>
@@ -24404,7 +24357,7 @@
         <v>161</v>
       </c>
       <c r="Z56" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AA56" t="s">
         <v>100</v>
@@ -24413,7 +24366,7 @@
         <v>97</v>
       </c>
       <c r="AD56" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AF56" t="s">
         <v>99</v>
@@ -24431,14 +24384,14 @@
         <v>97</v>
       </c>
       <c r="AP56" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AR56" t="s">
         <v>70</v>
       </c>
       <c r="AS56"/>
       <c r="AT56" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AU56"/>
       <c r="AV56" t="s">
@@ -24708,7 +24661,7 @@
         <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D57" t="s">
         <v>83</v>
@@ -24717,16 +24670,16 @@
         <v>83</v>
       </c>
       <c r="F57" t="s">
+        <v>513</v>
+      </c>
+      <c r="G57" t="s">
+        <v>514</v>
+      </c>
+      <c r="H57" t="s">
+        <v>514</v>
+      </c>
+      <c r="I57" t="s">
         <v>515</v>
-      </c>
-      <c r="G57" t="s">
-        <v>516</v>
-      </c>
-      <c r="H57" t="s">
-        <v>516</v>
-      </c>
-      <c r="I57" t="s">
-        <v>517</v>
       </c>
       <c r="J57" t="s">
         <v>88</v>
@@ -24752,7 +24705,7 @@
         <v>170</v>
       </c>
       <c r="U57" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="V57" t="s">
         <v>94</v>
@@ -24767,16 +24720,16 @@
         <v>169</v>
       </c>
       <c r="Z57" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AA57" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AB57" t="s">
         <v>97</v>
       </c>
       <c r="AD57" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="AF57" t="s">
         <v>99</v>
@@ -24788,13 +24741,13 @@
         <v>89</v>
       </c>
       <c r="AL57" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AN57" t="s">
         <v>97</v>
       </c>
       <c r="AP57" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="AR57" t="s">
         <v>70</v>
@@ -25107,7 +25060,7 @@
         <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D58" t="s">
         <v>83</v>
@@ -25116,16 +25069,16 @@
         <v>83</v>
       </c>
       <c r="F58" t="s">
+        <v>518</v>
+      </c>
+      <c r="G58" t="s">
+        <v>519</v>
+      </c>
+      <c r="H58" t="s">
         <v>520</v>
       </c>
-      <c r="G58" t="s">
+      <c r="I58" t="s">
         <v>521</v>
-      </c>
-      <c r="H58" t="s">
-        <v>522</v>
-      </c>
-      <c r="I58" t="s">
-        <v>523</v>
       </c>
       <c r="J58" t="s">
         <v>88</v>
@@ -25148,10 +25101,10 @@
         <v>113</v>
       </c>
       <c r="T58" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="U58" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="V58" t="s">
         <v>94</v>
@@ -25169,7 +25122,7 @@
         <v>116</v>
       </c>
       <c r="AA58" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AB58" t="s">
         <v>97</v>
@@ -25198,11 +25151,11 @@
       </c>
       <c r="AS58"/>
       <c r="AT58" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AU58"/>
       <c r="AV58" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AW58"/>
       <c r="AX58"/>
@@ -25476,25 +25429,25 @@
         <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D59" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E59">
         <v>963</v>
       </c>
       <c r="F59" t="s">
+        <v>525</v>
+      </c>
+      <c r="G59" t="s">
+        <v>526</v>
+      </c>
+      <c r="H59" t="s">
         <v>527</v>
       </c>
-      <c r="G59" t="s">
+      <c r="I59" t="s">
         <v>528</v>
-      </c>
-      <c r="H59" t="s">
-        <v>529</v>
-      </c>
-      <c r="I59" t="s">
-        <v>530</v>
       </c>
       <c r="J59" t="s">
         <v>88</v>
@@ -25520,7 +25473,7 @@
         <v>114</v>
       </c>
       <c r="U59" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="V59" t="s">
         <v>94</v>
@@ -25538,13 +25491,13 @@
         <v>116</v>
       </c>
       <c r="AA59" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AB59" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AD59" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AF59" t="s">
         <v>99</v>
@@ -25560,18 +25513,18 @@
         <v>101</v>
       </c>
       <c r="AP59" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AR59" t="s">
         <v>70</v>
       </c>
       <c r="AS59"/>
       <c r="AT59" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AU59"/>
       <c r="AV59" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AW59"/>
       <c r="AX59"/>
@@ -25828,7 +25781,7 @@
         <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D60" t="s">
         <v>83</v>
@@ -25837,16 +25790,16 @@
         <v>83</v>
       </c>
       <c r="F60" t="s">
+        <v>530</v>
+      </c>
+      <c r="G60" t="s">
+        <v>531</v>
+      </c>
+      <c r="H60" t="s">
         <v>532</v>
       </c>
-      <c r="G60" t="s">
+      <c r="I60" t="s">
         <v>533</v>
-      </c>
-      <c r="H60" t="s">
-        <v>534</v>
-      </c>
-      <c r="I60" t="s">
-        <v>535</v>
       </c>
       <c r="J60" t="s">
         <v>88</v>
@@ -25872,7 +25825,7 @@
         <v>114</v>
       </c>
       <c r="U60" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="V60" t="s">
         <v>94</v>
@@ -25890,7 +25843,7 @@
         <v>116</v>
       </c>
       <c r="AA60" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AB60" t="s">
         <v>97</v>
@@ -25915,11 +25868,11 @@
       </c>
       <c r="AS60"/>
       <c r="AT60" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AU60"/>
       <c r="AV60" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AW60"/>
       <c r="AX60"/>
@@ -26189,25 +26142,25 @@
         <v>59</v>
       </c>
       <c r="C61" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D61" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E61">
         <v>1320</v>
       </c>
       <c r="F61" t="s">
+        <v>536</v>
+      </c>
+      <c r="G61" t="s">
+        <v>537</v>
+      </c>
+      <c r="H61" t="s">
         <v>538</v>
       </c>
-      <c r="G61" t="s">
+      <c r="I61" t="s">
         <v>539</v>
-      </c>
-      <c r="H61" t="s">
-        <v>540</v>
-      </c>
-      <c r="I61" t="s">
-        <v>541</v>
       </c>
       <c r="J61" t="s">
         <v>88</v>
@@ -26233,7 +26186,7 @@
         <v>114</v>
       </c>
       <c r="U61" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="V61" t="s">
         <v>94</v>
@@ -26251,13 +26204,13 @@
         <v>116</v>
       </c>
       <c r="AA61" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AB61" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AD61" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AF61" t="s">
         <v>99</v>
@@ -26273,18 +26226,18 @@
         <v>101</v>
       </c>
       <c r="AP61" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AR61" t="s">
         <v>70</v>
       </c>
       <c r="AS61"/>
       <c r="AT61" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AU61"/>
       <c r="AV61" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AW61"/>
       <c r="AX61"/>
@@ -26546,7 +26499,7 @@
         <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D62" t="s">
         <v>83</v>
@@ -26555,16 +26508,16 @@
         <v>83</v>
       </c>
       <c r="F62" t="s">
+        <v>541</v>
+      </c>
+      <c r="G62" t="s">
+        <v>542</v>
+      </c>
+      <c r="H62" t="s">
         <v>543</v>
       </c>
-      <c r="G62" t="s">
+      <c r="I62" t="s">
         <v>544</v>
-      </c>
-      <c r="H62" t="s">
-        <v>545</v>
-      </c>
-      <c r="I62" t="s">
-        <v>546</v>
       </c>
       <c r="J62" t="s">
         <v>88</v>
@@ -26590,7 +26543,7 @@
         <v>114</v>
       </c>
       <c r="U62" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="V62" t="s">
         <v>94</v>
@@ -26608,7 +26561,7 @@
         <v>116</v>
       </c>
       <c r="AA62" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AB62" t="s">
         <v>97</v>
@@ -26637,11 +26590,11 @@
       </c>
       <c r="AS62"/>
       <c r="AT62" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AU62"/>
       <c r="AV62" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AW62"/>
       <c r="AX62"/>
@@ -26943,7 +26896,7 @@
         <v>36</v>
       </c>
       <c r="C63" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D63" t="s">
         <v>83</v>
@@ -26952,16 +26905,16 @@
         <v>83</v>
       </c>
       <c r="F63" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G63" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H63" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I63" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="J63" t="s">
         <v>88</v>
@@ -26987,7 +26940,7 @@
         <v>178</v>
       </c>
       <c r="U63" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="V63" t="s">
         <v>94</v>
@@ -27005,13 +26958,13 @@
         <v>96</v>
       </c>
       <c r="AA63" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AB63" t="s">
         <v>97</v>
       </c>
       <c r="AD63" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="AF63" t="s">
         <v>99</v>
@@ -27023,13 +26976,13 @@
         <v>89</v>
       </c>
       <c r="AL63" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AN63" t="s">
         <v>97</v>
       </c>
       <c r="AP63" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="AR63" t="s">
         <v>70</v>
@@ -27063,17 +27016,13 @@
         <v>250</v>
       </c>
       <c r="BI63"/>
-      <c r="BJ63" t="s">
-        <v>251</v>
-      </c>
+      <c r="BJ63"/>
       <c r="BK63"/>
       <c r="BL63" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="BM63"/>
-      <c r="BN63" t="s">
-        <v>252</v>
-      </c>
+      <c r="BN63"/>
       <c r="BO63"/>
       <c r="BP63" t="s">
         <v>67</v>

--- a/public/Admin.xlsx
+++ b/public/Admin.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
   <si>
     <t>Número da Mudança</t>
   </si>
@@ -26,10 +26,10 @@
     <t>xdqz</t>
   </si>
   <si>
-    <t>dxqzd</t>
-  </si>
-  <si>
-    <t>xdqzx</t>
+    <t>xdqzxdqz</t>
+  </si>
+  <si>
+    <t>dxqz</t>
   </si>
   <si>
     <t>Descrição da Mudança</t>
@@ -95,16 +95,22 @@
     <t>Comentário</t>
   </si>
   <si>
-    <t>Status Aprovação</t>
+    <t>xdqzxd</t>
   </si>
   <si>
     <t>Nenhum dado disponível</t>
   </si>
   <si>
-    <t>dzq</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> , 002 – COMERCIAL MATRIZ</t>
+    <t>zqxdqz</t>
+  </si>
+  <si>
+    <t>xdzqx</t>
+  </si>
+  <si>
+    <t>dzqx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> , 003 – ENGº DE PRODUTO MATRIZ</t>
   </si>
   <si>
     <t>021 – TI MATRIZ (INFRAESTRUTURA E REDE)</t>
@@ -116,7 +122,10 @@
     <t>Solicitante</t>
   </si>
   <si>
-    <t>11-01-2024</t>
+    <t>004 – COMPRAS MATRIZ (COMPRAS/ IMPORTAÇÃO/ORÇAMENTO)</t>
+  </si>
+  <si>
+    <t>29-01-2024</t>
   </si>
   <si>
     <t>N.A</t>
@@ -125,10 +134,13 @@
     <t>Gerente Solicitante</t>
   </si>
   <si>
+    <t>Lucas Melo da Costa</t>
+  </si>
+  <si>
     <t>Aprovação automática</t>
   </si>
   <si>
-    <t>como gerente de 021 – TI MATRIZ (INFRAESTRUTURA E REDE)</t>
+    <t>como gerente de 004 – COMPRAS MATRIZ (COMPRAS/ IMPORTAÇÃO/ORÇAMENTO)</t>
   </si>
   <si>
     <t>Gerente Aprovação</t>
@@ -137,46 +149,25 @@
     <t>Aprovado</t>
   </si>
   <si>
-    <t>15-01-2024</t>
-  </si>
-  <si>
-    <t>xdqzxdzq</t>
-  </si>
-  <si>
-    <t>Dados de implementação</t>
-  </si>
-  <si>
-    <t>Implementada</t>
-  </si>
-  <si>
-    <t>xdqzxdqz</t>
-  </si>
-  <si>
-    <t>qzxdzq</t>
-  </si>
-  <si>
-    <t>dxqzdx</t>
-  </si>
-  <si>
-    <t>dxqzx</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> , 003 – ENGº DE PRODUTO MATRIZ</t>
-  </si>
-  <si>
-    <t>xdqzdqz</t>
-  </si>
-  <si>
-    <t>dqz</t>
-  </si>
-  <si>
-    <t>dxqz</t>
-  </si>
-  <si>
-    <t>xqzxdqz</t>
-  </si>
-  <si>
     <t>Não verificado</t>
+  </si>
+  <si>
+    <t>xqz</t>
+  </si>
+  <si>
+    <t>xdzq</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>xqzxd</t>
+  </si>
+  <si>
+    <t>qzxd</t>
+  </si>
+  <si>
+    <t>xdqzxdz</t>
   </si>
 </sst>
 </file>
@@ -526,10 +517,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AU10"/>
+  <dimension ref="A1:AO13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="AU1" sqref="AU1"/>
+      <selection activeCell="AO1" sqref="AO1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -552,38 +543,32 @@
     <col min="16" max="16" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="24.708" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="47.131" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="62.413" bestFit="true" customWidth="true" style="0"/>
     <col min="20" max="20" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="23.423" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="24" max="24" width="23.423" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="47.131" bestFit="true" customWidth="true" style="0"/>
-    <col min="26" max="26" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="25" max="25" width="62.413" bestFit="true" customWidth="true" style="0"/>
+    <col min="26" max="26" width="23.423" bestFit="true" customWidth="true" style="0"/>
     <col min="27" max="27" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="28" max="28" width="24.708" bestFit="true" customWidth="true" style="0"/>
-    <col min="29" max="29" width="65.984" bestFit="true" customWidth="true" style="0"/>
+    <col min="29" max="29" width="81.266" bestFit="true" customWidth="true" style="0"/>
     <col min="30" max="30" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="31" max="31" width="47.131" bestFit="true" customWidth="true" style="0"/>
     <col min="32" max="32" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="33" max="33" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="34" max="34" width="23.423" bestFit="true" customWidth="true" style="0"/>
-    <col min="35" max="35" width="65.984" bestFit="true" customWidth="true" style="0"/>
+    <col min="35" max="35" width="81.266" bestFit="true" customWidth="true" style="0"/>
     <col min="36" max="36" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="37" max="37" width="18.71" bestFit="true" customWidth="true" style="0"/>
-    <col min="38" max="38" width="47.131" bestFit="true" customWidth="true" style="0"/>
+    <col min="38" max="38" width="62.413" bestFit="true" customWidth="true" style="0"/>
     <col min="39" max="39" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="40" max="40" width="23.423" bestFit="true" customWidth="true" style="0"/>
     <col min="41" max="41" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="42" max="42" width="26.993" bestFit="true" customWidth="true" style="0"/>
-    <col min="43" max="43" width="47.131" bestFit="true" customWidth="true" style="0"/>
-    <col min="44" max="44" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="45" max="45" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="46" max="46" width="19.995" bestFit="true" customWidth="true" style="0"/>
-    <col min="47" max="47" width="12.854" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="2" customFormat="1">
+    <row r="1" spans="1:41" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -707,34 +692,16 @@
       <c r="AO1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AP1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="2" spans="1:47">
+    <row r="2" spans="1:41">
       <c r="A2" s="2">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
@@ -743,130 +710,106 @@
         <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
         <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M2"/>
       <c r="N2"/>
       <c r="O2"/>
       <c r="P2"/>
-      <c r="Q2">
-        <v>1</v>
-      </c>
+      <c r="Q2"/>
       <c r="R2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE2" t="s">
         <v>32</v>
       </c>
-      <c r="S2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V2" t="s">
-        <v>34</v>
-      </c>
-      <c r="W2" t="s">
-        <v>34</v>
-      </c>
-      <c r="X2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB2" t="s">
+      <c r="AF2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG2" t="s">
         <v>36</v>
       </c>
-      <c r="AC2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>33</v>
-      </c>
       <c r="AH2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AI2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AJ2" t="s">
         <v>14</v>
       </c>
       <c r="AK2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AL2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>40</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="AM2"/>
       <c r="AN2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AU2" t="s">
         <v>44</v>
       </c>
+      <c r="AO2"/>
     </row>
-    <row r="3" spans="1:47">
+    <row r="3" spans="1:41">
       <c r="A3" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -884,127 +827,103 @@
         <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s">
         <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M3"/>
       <c r="N3"/>
       <c r="O3"/>
       <c r="P3"/>
-      <c r="Q3">
-        <v>1</v>
-      </c>
+      <c r="Q3"/>
       <c r="R3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE3" t="s">
         <v>32</v>
       </c>
-      <c r="S3" t="s">
-        <v>30</v>
-      </c>
-      <c r="T3" t="s">
-        <v>31</v>
-      </c>
-      <c r="U3" t="s">
-        <v>40</v>
-      </c>
-      <c r="V3" t="s">
-        <v>34</v>
-      </c>
-      <c r="W3" t="s">
-        <v>34</v>
-      </c>
-      <c r="X3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB3" t="s">
+      <c r="AF3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG3" t="s">
         <v>36</v>
       </c>
-      <c r="AC3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>40</v>
-      </c>
       <c r="AH3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AI3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="AJ3" t="s">
         <v>14</v>
       </c>
       <c r="AK3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AL3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>40</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="AM3"/>
       <c r="AN3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>49</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AO3"/>
     </row>
-    <row r="4" spans="1:47">
+    <row r="4" spans="1:41">
       <c r="A4" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
@@ -1013,25 +932,25 @@
         <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K4" t="s">
         <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M4"/>
       <c r="N4"/>
@@ -1039,129 +958,186 @@
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" t="s">
+        <v>37</v>
+      </c>
+      <c r="X4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE4" t="s">
         <v>32</v>
       </c>
-      <c r="S4" t="s">
-        <v>30</v>
-      </c>
-      <c r="T4" t="s">
-        <v>31</v>
-      </c>
-      <c r="U4" t="s">
-        <v>40</v>
-      </c>
-      <c r="V4" t="s">
-        <v>34</v>
-      </c>
-      <c r="W4" t="s">
-        <v>34</v>
-      </c>
-      <c r="X4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB4" t="s">
+      <c r="AF4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG4" t="s">
         <v>36</v>
       </c>
-      <c r="AC4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>40</v>
-      </c>
       <c r="AH4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AI4" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AJ4" t="s">
         <v>14</v>
       </c>
       <c r="AK4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AL4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AM4"/>
       <c r="AN4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AO4"/>
-      <c r="AP4"/>
-      <c r="AQ4"/>
-      <c r="AR4"/>
-      <c r="AS4"/>
-      <c r="AT4"/>
-      <c r="AU4"/>
     </row>
-    <row r="5" spans="1:47">
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
+    <row r="5" spans="1:41">
+      <c r="A5" s="2">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-      <c r="AB5"/>
-      <c r="AC5"/>
-      <c r="AD5"/>
-      <c r="AE5"/>
-      <c r="AF5"/>
-      <c r="AG5"/>
-      <c r="AH5"/>
-      <c r="AI5"/>
-      <c r="AJ5"/>
-      <c r="AK5"/>
-      <c r="AL5"/>
+      <c r="R5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S5" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" t="s">
+        <v>36</v>
+      </c>
+      <c r="V5" t="s">
+        <v>37</v>
+      </c>
+      <c r="W5" t="s">
+        <v>37</v>
+      </c>
+      <c r="X5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>35</v>
+      </c>
       <c r="AM5"/>
-      <c r="AN5"/>
+      <c r="AN5" t="s">
+        <v>44</v>
+      </c>
       <c r="AO5"/>
-      <c r="AP5"/>
-      <c r="AQ5"/>
-      <c r="AR5"/>
-      <c r="AS5"/>
-      <c r="AT5"/>
-      <c r="AU5"/>
     </row>
-    <row r="6" spans="1:47">
+    <row r="6" spans="1:41">
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
@@ -1202,14 +1178,8 @@
       <c r="AM6"/>
       <c r="AN6"/>
       <c r="AO6"/>
-      <c r="AP6"/>
-      <c r="AQ6"/>
-      <c r="AR6"/>
-      <c r="AS6"/>
-      <c r="AT6"/>
-      <c r="AU6"/>
     </row>
-    <row r="7" spans="1:47">
+    <row r="7" spans="1:41">
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7"/>
@@ -1250,14 +1220,8 @@
       <c r="AM7"/>
       <c r="AN7"/>
       <c r="AO7"/>
-      <c r="AP7"/>
-      <c r="AQ7"/>
-      <c r="AR7"/>
-      <c r="AS7"/>
-      <c r="AT7"/>
-      <c r="AU7"/>
     </row>
-    <row r="8" spans="1:47">
+    <row r="8" spans="1:41">
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8"/>
@@ -1298,14 +1262,8 @@
       <c r="AM8"/>
       <c r="AN8"/>
       <c r="AO8"/>
-      <c r="AP8"/>
-      <c r="AQ8"/>
-      <c r="AR8"/>
-      <c r="AS8"/>
-      <c r="AT8"/>
-      <c r="AU8"/>
     </row>
-    <row r="9" spans="1:47">
+    <row r="9" spans="1:41">
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
@@ -1346,14 +1304,8 @@
       <c r="AM9"/>
       <c r="AN9"/>
       <c r="AO9"/>
-      <c r="AP9"/>
-      <c r="AQ9"/>
-      <c r="AR9"/>
-      <c r="AS9"/>
-      <c r="AT9"/>
-      <c r="AU9"/>
     </row>
-    <row r="10" spans="1:47">
+    <row r="10" spans="1:41">
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
@@ -1394,12 +1346,132 @@
       <c r="AM10"/>
       <c r="AN10"/>
       <c r="AO10"/>
-      <c r="AP10"/>
-      <c r="AQ10"/>
-      <c r="AR10"/>
-      <c r="AS10"/>
-      <c r="AT10"/>
-      <c r="AU10"/>
+    </row>
+    <row r="11" spans="1:41">
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11"/>
+      <c r="AJ11"/>
+      <c r="AK11"/>
+      <c r="AL11"/>
+      <c r="AM11"/>
+      <c r="AN11"/>
+      <c r="AO11"/>
+    </row>
+    <row r="12" spans="1:41">
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+      <c r="AG12"/>
+      <c r="AH12"/>
+      <c r="AI12"/>
+      <c r="AJ12"/>
+      <c r="AK12"/>
+      <c r="AL12"/>
+      <c r="AM12"/>
+      <c r="AN12"/>
+      <c r="AO12"/>
+    </row>
+    <row r="13" spans="1:41">
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+      <c r="AG13"/>
+      <c r="AH13"/>
+      <c r="AI13"/>
+      <c r="AJ13"/>
+      <c r="AK13"/>
+      <c r="AL13"/>
+      <c r="AM13"/>
+      <c r="AN13"/>
+      <c r="AO13"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
